--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -215,10 +215,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -226,62 +226,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -603,7 +547,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -646,7 +590,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -669,9 +613,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>APP_LOG_LEVEL</t>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>DB_HOST</t>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>DB_PORT</t>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>DB_NAME</t>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>DB_USERNAME</t>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>DB_PASSWORD</t>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>DB_SSL_MODE</t>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>CACHE_HOST</t>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>CACHE_PORT</t>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>CACHE_PASSWORD</t>
@@ -1753,7 +1753,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>CACHE_TTL</t>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>JWT_SECRET</t>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>ENCRYPTION_KEY</t>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>API_KEY</t>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>CORS_ORIGINS</t>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>SERVICE_ENDPOINT</t>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>SERVICE_API_KEY</t>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>SERVICE_TIMEOUT</t>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>METRICS_ENABLED</t>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>HEALTH_CHECK_PATH</t>
@@ -2403,7 +2403,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>PROMETHEUS_PORT</t>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_1</t>
@@ -2598,7 +2598,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_2</t>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_1</t>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1">
+    <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_2</t>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1">
+    <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
           <t>DB_SUBNET_1</t>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1">
+    <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>DB_SUBNET_2</t>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1">
+    <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
           <t>BACKUP_RETENTION</t>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1">
+    <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>BACKUP_SCHEDULE</t>
@@ -3053,7 +3053,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1">
+    <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
           <t>LOG_RETENTION</t>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1">
+    <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>SCALING_MIN_INSTANCES</t>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1">
+    <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
           <t>SCALING_MAX_INSTANCES</t>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1">
+    <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
           <t>SCALING_TARGET_CPU</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Configuration'!$A$1:$M$41</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Configuration'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,10 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,26 +33,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -64,12 +94,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,13 +144,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -108,29 +190,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -215,10 +339,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -531,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,83 +663,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Configuration</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for configuration</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -626,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -653,2661 +801,2661 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Parameter Name</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Default Value</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>Data Type</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Validation Rules</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Security Level</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Owner Team</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="19" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>APP_NAME</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="n">
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="n">
         <v/>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Application identifier for logging and monitoring</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>Max 50 characters</t>
         </is>
       </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="20" t="n">
         <v/>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>Used in logs and metrics</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="22" t="inlineStr">
         <is>
           <t>APP_VERSION</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="n">
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="n">
         <v/>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="22" t="inlineStr">
         <is>
           <t>Current application version</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="F3" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="22" t="inlineStr">
         <is>
           <t>Semantic versioning format</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="22" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="22" t="n">
         <v/>
       </c>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="22" t="inlineStr">
         <is>
           <t>Updated with each release</t>
         </is>
       </c>
-      <c r="M3" s="7" t="inlineStr">
+      <c r="M3" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>APP_ENVIRONMENT</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="n">
         <v/>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Deployment environment identifier</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>development|staging|production</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="20" t="n">
         <v/>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>Controls feature flags and logging</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="22" t="inlineStr">
         <is>
           <t>APP_PORT</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="n">
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D5" s="23" t="n">
         <v>8080</v>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="22" t="inlineStr">
         <is>
           <t>Port number for application server</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="F5" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="22" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="22" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="22" t="inlineStr">
         <is>
           <t>Network configuration</t>
         </is>
       </c>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="L5" s="22" t="inlineStr">
         <is>
           <t>Ensure no port conflicts</t>
         </is>
       </c>
-      <c r="M5" s="7" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="M5" s="22" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>APP_LOG_LEVEL</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="n">
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
         <v/>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>Logging verbosity level</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>debug|info|warn|error</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="20" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="20" t="inlineStr">
         <is>
           <t>Production should use warn or error</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>DB_HOST</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="n">
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D7" s="23" t="n">
         <v/>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>Database server hostname or IP</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="F7" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="22" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="22" t="inlineStr">
         <is>
           <t>Use FQDN for production</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>DB_PORT</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="n">
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n">
         <v>5432</v>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Database server port</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="20" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>PostgreSQL default port</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>DB_NAME</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="n">
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D9" s="23" t="n">
         <v/>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>Database name to connect to</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="F9" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>Valid database identifier</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="22" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="22" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="22" t="inlineStr">
         <is>
           <t>Database creation</t>
         </is>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="22" t="inlineStr">
         <is>
           <t>Must exist before deployment</t>
         </is>
       </c>
-      <c r="M9" s="7" t="inlineStr">
+      <c r="M9" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>DB_USERNAME</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="n">
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n">
         <v/>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>Database connection username</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Valid username format</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="20" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="20" t="inlineStr">
         <is>
           <t>Use service account</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>DB_PASSWORD</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="22" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D11" s="9" t="n">
+      <c r="C11" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D11" s="23" t="n">
         <v/>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="22" t="inlineStr">
         <is>
           <t>Database connection password</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="F11" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="22" t="inlineStr">
         <is>
           <t>Min 12 chars with complexity</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="22" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="22" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="K11" s="22" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L11" s="7" t="inlineStr">
+      <c r="L11" s="22" t="inlineStr">
         <is>
           <t>Store in secrets manager</t>
         </is>
       </c>
-      <c r="M11" s="7" t="inlineStr">
+      <c r="M11" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>DB_SSL_MODE</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="21" t="n">
         <v/>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>SSL connection requirement</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t>disable|allow|prefer|require</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K12" s="6" t="inlineStr">
+      <c r="K12" s="20" t="inlineStr">
         <is>
           <t>SSL certificates</t>
         </is>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="20" t="inlineStr">
         <is>
           <t>Always require for production</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="22" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D13" s="9" t="n">
+      <c r="C13" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D13" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>Minimum database connections in pool</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="F13" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="22" t="inlineStr">
         <is>
           <t>1-100</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="22" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="22" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="22" t="inlineStr">
         <is>
           <t>Tune based on load patterns</t>
         </is>
       </c>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="M13" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Maximum database connections in pool</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>5-500</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="20" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="20" t="inlineStr">
         <is>
           <t>Monitor connection usage</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>CACHE_HOST</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="22" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D15" s="9" t="n">
+      <c r="C15" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D15" s="23" t="n">
         <v/>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="22" t="inlineStr">
         <is>
           <t>Redis cache server hostname</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="F15" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="22" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="22" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="22" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="K15" s="22" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="L15" s="22" t="inlineStr">
         <is>
           <t>Use Redis cluster for HA</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
+      <c r="M15" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>CACHE_PORT</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="n">
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
         <v>6379</v>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>Redis cache server port</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K16" s="6" t="inlineStr">
+      <c r="K16" s="20" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="L16" s="20" t="inlineStr">
         <is>
           <t>Redis default port</t>
         </is>
       </c>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>CACHE_PASSWORD</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="n">
+      <c r="C17" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D17" s="23" t="n">
         <v/>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="22" t="inlineStr">
         <is>
           <t>Redis authentication password</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="G17" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="H17" s="22" t="inlineStr">
         <is>
           <t>Min 8 characters</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="22" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="22" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr">
+      <c r="K17" s="22" t="inlineStr">
         <is>
           <t>Redis configuration</t>
         </is>
       </c>
-      <c r="L17" s="7" t="inlineStr">
+      <c r="L17" s="22" t="inlineStr">
         <is>
           <t>Optional if Redis AUTH disabled</t>
         </is>
       </c>
-      <c r="M17" s="7" t="inlineStr">
+      <c r="M17" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>CACHE_TTL</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D18" s="8" t="n">
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n">
         <v>3600</v>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>Default cache time-to-live in seconds</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="H18" s="20" t="inlineStr">
         <is>
           <t>60-86400</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="J18" s="20" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K18" s="6" t="inlineStr">
+      <c r="K18" s="20" t="inlineStr">
         <is>
           <t>Cache strategy</t>
         </is>
       </c>
-      <c r="L18" s="6" t="inlineStr">
+      <c r="L18" s="20" t="inlineStr">
         <is>
           <t>Tune based on data patterns</t>
         </is>
       </c>
-      <c r="M18" s="6" t="inlineStr">
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="22" t="inlineStr">
         <is>
           <t>JWT_SECRET</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="22" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="n">
+      <c r="C19" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D19" s="23" t="n">
         <v/>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="22" t="inlineStr">
         <is>
           <t>Secret key for JWT token signing</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="F19" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="22" t="inlineStr">
         <is>
           <t>Min 32 chars base64</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="22" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="22" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr">
+      <c r="K19" s="22" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-      <c r="L19" s="7" t="inlineStr">
+      <c r="L19" s="22" t="inlineStr">
         <is>
           <t>Rotate regularly</t>
         </is>
       </c>
-      <c r="M19" s="7" t="inlineStr">
+      <c r="M19" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>ENCRYPTION_KEY</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="n">
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n">
         <v/>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>Key for data encryption at rest</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="F20" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="H20" s="20" t="inlineStr">
         <is>
           <t>256-bit key base64</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="20" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="20" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K20" s="6" t="inlineStr">
+      <c r="K20" s="20" t="inlineStr">
         <is>
           <t>Encryption service</t>
         </is>
       </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="L20" s="20" t="inlineStr">
         <is>
           <t>Use key management service</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="22" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="22" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D21" s="9" t="n">
+      <c r="C21" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D21" s="23" t="n">
         <v/>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="22" t="inlineStr">
         <is>
           <t>API authentication key</t>
         </is>
       </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="F21" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="22" t="inlineStr">
         <is>
           <t>UUID or secure random</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="22" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="22" t="inlineStr">
         <is>
           <t>API Team</t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr">
+      <c r="K21" s="22" t="inlineStr">
         <is>
           <t>External services</t>
         </is>
       </c>
-      <c r="L21" s="7" t="inlineStr">
+      <c r="L21" s="22" t="inlineStr">
         <is>
           <t>Unique per environment</t>
         </is>
       </c>
-      <c r="M21" s="7" t="inlineStr">
+      <c r="M21" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="20" t="inlineStr">
         <is>
           <t>CORS_ORIGINS</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="n">
+      <c r="C22" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n">
         <v/>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="20" t="inlineStr">
         <is>
           <t>Allowed CORS origins</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="F22" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="H22" s="20" t="inlineStr">
         <is>
           <t>Comma-separated URLs</t>
         </is>
       </c>
-      <c r="I22" s="6" t="inlineStr">
+      <c r="I22" s="20" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="J22" s="20" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K22" s="6" t="inlineStr">
+      <c r="K22" s="20" t="inlineStr">
         <is>
           <t>Frontend domains</t>
         </is>
       </c>
-      <c r="L22" s="6" t="inlineStr">
+      <c r="L22" s="20" t="inlineStr">
         <is>
           <t>Restrict to known domains</t>
         </is>
       </c>
-      <c r="M22" s="6" t="inlineStr">
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="22" t="inlineStr">
         <is>
           <t>SERVICE_ENDPOINT</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="22" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="n">
+      <c r="C23" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D23" s="23" t="n">
         <v/>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="22" t="inlineStr">
         <is>
           <t>External service API endpoint</t>
         </is>
       </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="F23" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="22" t="inlineStr">
         <is>
           <t>Valid HTTPS URL</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="22" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="22" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K23" s="7" t="inlineStr">
+      <c r="K23" s="22" t="inlineStr">
         <is>
           <t>Service availability</t>
         </is>
       </c>
-      <c r="L23" s="7" t="inlineStr">
+      <c r="L23" s="22" t="inlineStr">
         <is>
           <t>Use load balancer URL</t>
         </is>
       </c>
-      <c r="M23" s="7" t="inlineStr">
+      <c r="M23" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="20" t="inlineStr">
         <is>
           <t>SERVICE_API_KEY</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n">
         <v/>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="20" t="inlineStr">
         <is>
           <t>API key for external service</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="F24" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="H24" s="20" t="inlineStr">
         <is>
           <t>Provider-specific format</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="I24" s="20" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="J24" s="20" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K24" s="6" t="inlineStr">
+      <c r="K24" s="20" t="inlineStr">
         <is>
           <t>Service registration</t>
         </is>
       </c>
-      <c r="L24" s="6" t="inlineStr">
+      <c r="L24" s="20" t="inlineStr">
         <is>
           <t>Obtain from service provider</t>
         </is>
       </c>
-      <c r="M24" s="6" t="inlineStr">
+      <c r="M24" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="A25" s="22" t="inlineStr">
         <is>
           <t>SERVICE_TIMEOUT</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="22" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="n">
+      <c r="C25" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D25" s="23" t="n">
         <v>30000</v>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="22" t="inlineStr">
         <is>
           <t>Service call timeout in milliseconds</t>
         </is>
       </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="F25" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" s="22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr">
+      <c r="H25" s="22" t="inlineStr">
         <is>
           <t>1000-300000</t>
         </is>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="J25" s="22" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K25" s="7" t="inlineStr">
+      <c r="K25" s="22" t="inlineStr">
         <is>
           <t>Network latency</t>
         </is>
       </c>
-      <c r="L25" s="7" t="inlineStr">
+      <c r="L25" s="22" t="inlineStr">
         <is>
           <t>Adjust based on SLA</t>
         </is>
       </c>
-      <c r="M25" s="7" t="inlineStr">
+      <c r="M25" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="20" t="inlineStr">
         <is>
           <t>METRICS_ENABLED</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="n">
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
         <v/>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
         <is>
           <t>Enable metrics collection</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="F26" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="20" t="inlineStr">
         <is>
           <t>Boolean</t>
         </is>
       </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="H26" s="20" t="inlineStr">
         <is>
           <t>true|false</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="I26" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J26" s="6" t="inlineStr">
+      <c r="J26" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K26" s="6" t="inlineStr">
+      <c r="K26" s="20" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L26" s="6" t="inlineStr">
+      <c r="L26" s="20" t="inlineStr">
         <is>
           <t>Always enable for production</t>
         </is>
       </c>
-      <c r="M26" s="6" t="inlineStr">
+      <c r="M26" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="22" t="inlineStr">
         <is>
           <t>HEALTH_CHECK_PATH</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="22" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="n">
+      <c r="C27" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D27" s="23" t="n">
         <v/>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="22" t="inlineStr">
         <is>
           <t>Health check endpoint path</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="F27" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr">
+      <c r="H27" s="22" t="inlineStr">
         <is>
           <t>Valid URL path</t>
         </is>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J27" s="7" t="inlineStr">
+      <c r="J27" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K27" s="7" t="inlineStr">
+      <c r="K27" s="22" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L27" s="7" t="inlineStr">
+      <c r="L27" s="22" t="inlineStr">
         <is>
           <t>Must return 200 for healthy</t>
         </is>
       </c>
-      <c r="M27" s="7" t="inlineStr">
+      <c r="M27" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
+      <c r="A28" s="20" t="inlineStr">
         <is>
           <t>PROMETHEUS_PORT</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="20" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n">
         <v>9090</v>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="20" t="inlineStr">
         <is>
           <t>Port for Prometheus metrics</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="F28" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="H28" s="20" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I28" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J28" s="6" t="inlineStr">
+      <c r="J28" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K28" s="6" t="inlineStr">
+      <c r="K28" s="20" t="inlineStr">
         <is>
           <t>Monitoring stack</t>
         </is>
       </c>
-      <c r="L28" s="6" t="inlineStr">
+      <c r="L28" s="20" t="inlineStr">
         <is>
           <t>Ensure port availability</t>
         </is>
       </c>
-      <c r="M28" s="6" t="inlineStr">
+      <c r="M28" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="A29" s="22" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B29" s="22" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="n">
+      <c r="C29" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D29" s="23" t="n">
         <v/>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="22" t="inlineStr">
         <is>
           <t>VPC CIDR block</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="F29" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="22" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="22" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K29" s="7" t="inlineStr">
+      <c r="K29" s="22" t="inlineStr">
         <is>
           <t>IP planning</t>
         </is>
       </c>
-      <c r="L29" s="7" t="inlineStr">
+      <c r="L29" s="22" t="inlineStr">
         <is>
           <t>Plan for future growth</t>
         </is>
       </c>
-      <c r="M29" s="7" t="inlineStr">
+      <c r="M29" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+      <c r="A30" s="20" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_1</t>
         </is>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="20" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
+      <c r="C30" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n">
         <v/>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="20" t="inlineStr">
         <is>
           <t>First public subnet CIDR</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="F30" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="H30" s="20" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J30" s="6" t="inlineStr">
+      <c r="J30" s="20" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K30" s="6" t="inlineStr">
+      <c r="K30" s="20" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L30" s="6" t="inlineStr">
+      <c r="L30" s="20" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M30" s="6" t="inlineStr">
+      <c r="M30" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="22" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_2</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="22" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n">
+      <c r="C31" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D31" s="23" t="n">
         <v/>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E31" s="22" t="inlineStr">
         <is>
           <t>Second public subnet CIDR</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="F31" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="22" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="22" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K31" s="7" t="inlineStr">
+      <c r="K31" s="22" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L31" s="7" t="inlineStr">
+      <c r="L31" s="22" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M31" s="7" t="inlineStr">
+      <c r="M31" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
+      <c r="A32" s="20" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_1</t>
         </is>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="20" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
+      <c r="C32" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n">
         <v/>
       </c>
-      <c r="E32" s="6" t="inlineStr">
+      <c r="E32" s="20" t="inlineStr">
         <is>
           <t>First private subnet CIDR</t>
         </is>
       </c>
-      <c r="F32" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G32" s="6" t="inlineStr">
+      <c r="F32" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H32" s="6" t="inlineStr">
+      <c r="H32" s="20" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I32" s="6" t="inlineStr">
+      <c r="I32" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J32" s="6" t="inlineStr">
+      <c r="J32" s="20" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K32" s="6" t="inlineStr">
+      <c r="K32" s="20" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L32" s="6" t="inlineStr">
+      <c r="L32" s="20" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M32" s="6" t="inlineStr">
+      <c r="M32" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
+      <c r="A33" s="22" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_2</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B33" s="22" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="n">
+      <c r="C33" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D33" s="23" t="n">
         <v/>
       </c>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Second private subnet CIDR</t>
         </is>
       </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
+      <c r="F33" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H33" s="7" t="inlineStr">
+      <c r="H33" s="22" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I33" s="7" t="inlineStr">
+      <c r="I33" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J33" s="7" t="inlineStr">
+      <c r="J33" s="22" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K33" s="7" t="inlineStr">
+      <c r="K33" s="22" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L33" s="7" t="inlineStr">
+      <c r="L33" s="22" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M33" s="7" t="inlineStr">
+      <c r="M33" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
+      <c r="A34" s="20" t="inlineStr">
         <is>
           <t>DB_SUBNET_1</t>
         </is>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="20" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="n">
+      <c r="C34" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n">
         <v/>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="20" t="inlineStr">
         <is>
           <t>First database subnet CIDR</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr">
+      <c r="F34" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" s="20" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="H34" s="20" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J34" s="6" t="inlineStr">
+      <c r="J34" s="20" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K34" s="6" t="inlineStr">
+      <c r="K34" s="20" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L34" s="6" t="inlineStr">
+      <c r="L34" s="20" t="inlineStr">
         <is>
           <t>Isolated database tier</t>
         </is>
       </c>
-      <c r="M34" s="6" t="inlineStr">
+      <c r="M34" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
+      <c r="A35" s="22" t="inlineStr">
         <is>
           <t>DB_SUBNET_2</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="22" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n">
+      <c r="C35" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D35" s="23" t="n">
         <v/>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="22" t="inlineStr">
         <is>
           <t>Second database subnet CIDR</t>
         </is>
       </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr">
+      <c r="H35" s="22" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="I35" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J35" s="7" t="inlineStr">
+      <c r="J35" s="22" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K35" s="7" t="inlineStr">
+      <c r="K35" s="22" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L35" s="7" t="inlineStr">
+      <c r="L35" s="22" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M35" s="7" t="inlineStr">
+      <c r="M35" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
+      <c r="A36" s="20" t="inlineStr">
         <is>
           <t>BACKUP_RETENTION</t>
         </is>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B36" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="n">
+      <c r="C36" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="20" t="inlineStr">
         <is>
           <t>Backup retention period in days</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G36" s="6" t="inlineStr">
+      <c r="F36" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="H36" s="20" t="inlineStr">
         <is>
           <t>7-365</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
+      <c r="I36" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J36" s="6" t="inlineStr">
+      <c r="J36" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K36" s="6" t="inlineStr">
+      <c r="K36" s="20" t="inlineStr">
         <is>
           <t>Backup strategy</t>
         </is>
       </c>
-      <c r="L36" s="6" t="inlineStr">
+      <c r="L36" s="20" t="inlineStr">
         <is>
           <t>Comply with data policies</t>
         </is>
       </c>
-      <c r="M36" s="6" t="inlineStr">
+      <c r="M36" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="inlineStr">
+      <c r="A37" s="22" t="inlineStr">
         <is>
           <t>BACKUP_SCHEDULE</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n">
+      <c r="C37" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D37" s="23" t="n">
         <v/>
       </c>
-      <c r="E37" s="7" t="inlineStr">
+      <c r="E37" s="22" t="inlineStr">
         <is>
           <t>Backup schedule in cron format</t>
         </is>
       </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="F37" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" s="22" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr">
+      <c r="H37" s="22" t="inlineStr">
         <is>
           <t>Valid cron expression</t>
         </is>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="I37" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="J37" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K37" s="7" t="inlineStr">
+      <c r="K37" s="22" t="inlineStr">
         <is>
           <t>Backup service</t>
         </is>
       </c>
-      <c r="L37" s="7" t="inlineStr">
+      <c r="L37" s="22" t="inlineStr">
         <is>
           <t>Daily at 2 AM UTC</t>
         </is>
       </c>
-      <c r="M37" s="7" t="inlineStr">
+      <c r="M37" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
+      <c r="A38" s="20" t="inlineStr">
         <is>
           <t>LOG_RETENTION</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B38" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D38" s="8" t="n">
+      <c r="C38" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n">
         <v>90</v>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E38" s="20" t="inlineStr">
         <is>
           <t>Log retention period in days</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G38" s="6" t="inlineStr">
+      <c r="F38" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H38" s="6" t="inlineStr">
+      <c r="H38" s="20" t="inlineStr">
         <is>
           <t>30-365</t>
         </is>
       </c>
-      <c r="I38" s="6" t="inlineStr">
+      <c r="I38" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J38" s="6" t="inlineStr">
+      <c r="J38" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K38" s="6" t="inlineStr">
+      <c r="K38" s="20" t="inlineStr">
         <is>
           <t>Log management</t>
         </is>
       </c>
-      <c r="L38" s="6" t="inlineStr">
+      <c r="L38" s="20" t="inlineStr">
         <is>
           <t>Balance cost and compliance</t>
         </is>
       </c>
-      <c r="M38" s="6" t="inlineStr">
+      <c r="M38" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="A39" s="22" t="inlineStr">
         <is>
           <t>SCALING_MIN_INSTANCES</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="n">
+      <c r="C39" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D39" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="E39" s="22" t="inlineStr">
         <is>
           <t>Minimum number of instances</t>
         </is>
       </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G39" s="7" t="inlineStr">
+      <c r="F39" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" s="22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H39" s="7" t="inlineStr">
+      <c r="H39" s="22" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K39" s="7" t="inlineStr">
+      <c r="K39" s="22" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L39" s="7" t="inlineStr">
+      <c r="L39" s="22" t="inlineStr">
         <is>
           <t>Ensure high availability</t>
         </is>
       </c>
-      <c r="M39" s="7" t="inlineStr">
+      <c r="M39" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+      <c r="A40" s="20" t="inlineStr">
         <is>
           <t>SCALING_MAX_INSTANCES</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D40" s="8" t="n">
+      <c r="C40" s="20" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E40" s="20" t="inlineStr">
         <is>
           <t>Maximum number of instances</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr">
+      <c r="F40" s="20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" s="20" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="H40" s="20" t="inlineStr">
         <is>
           <t>5-100</t>
         </is>
       </c>
-      <c r="I40" s="6" t="inlineStr">
+      <c r="I40" s="20" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J40" s="6" t="inlineStr">
+      <c r="J40" s="20" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K40" s="6" t="inlineStr">
+      <c r="K40" s="20" t="inlineStr">
         <is>
           <t>Cost management</t>
         </is>
       </c>
-      <c r="L40" s="6" t="inlineStr">
+      <c r="L40" s="20" t="inlineStr">
         <is>
           <t>Set based on peak load</t>
         </is>
       </c>
-      <c r="M40" s="6" t="inlineStr">
+      <c r="M40" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="inlineStr">
+      <c r="A41" s="22" t="inlineStr">
         <is>
           <t>SCALING_TARGET_CPU</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
+      <c r="B41" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="n">
+      <c r="C41" s="22" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D41" s="23" t="n">
         <v>70</v>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="22" t="inlineStr">
         <is>
           <t>CPU threshold for auto-scaling</t>
         </is>
       </c>
-      <c r="F41" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="inlineStr">
+      <c r="F41" s="22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" s="22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H41" s="7" t="inlineStr">
+      <c r="H41" s="22" t="inlineStr">
         <is>
           <t>50-90</t>
         </is>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="I41" s="22" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J41" s="7" t="inlineStr">
+      <c r="J41" s="22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K41" s="7" t="inlineStr">
+      <c r="K41" s="22" t="inlineStr">
         <is>
           <t>Performance monitoring</t>
         </is>
       </c>
-      <c r="L41" s="7" t="inlineStr">
+      <c r="L41" s="22" t="inlineStr">
         <is>
           <t>Tune based on application behavior</t>
         </is>
       </c>
-      <c r="M41" s="7" t="inlineStr">
+      <c r="M41" s="22" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
@@ -3315,6 +3463,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M41"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -2,29 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Configuration" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Configuration'!$A$1:$M$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Configuration'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Configuration'!$A$2:$M$42</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,67 +31,104 @@
     </font>
     <font>
       <name val="Segoe UI"/>
-      <color rgb="0095A5A6"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Segoe UI Light"/>
-      <color rgb="002C3E50"/>
-      <sz val="28"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <color rgb="005D6D7E"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="005D6D7E"/>
+      <color rgb="FF5D6D7E"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="002C3E50"/>
+      <color rgb="FF2C3E50"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Segoe UI"/>
-      <b val="1"/>
-      <color rgb="00CC0000"/>
+      <color rgb="FFCC0000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="005D6D7E"/>
+      <color rgb="FF5D6D7E"/>
       <sz val="11"/>
       <u val="single"/>
     </font>
     <font>
-      <name val="Segoe UI Semibold"/>
+      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFCC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="26"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFCC0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF2C3E50"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00CC0000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -103,38 +137,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC0000"/>
-        <bgColor rgb="00CC0000"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002C3E50"/>
-        <bgColor rgb="002C3E50"/>
+        <fgColor rgb="FF2C3E50"/>
+        <bgColor rgb="FF2C3E50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8FAFB"/>
-        <bgColor rgb="00F8FAFB"/>
+        <fgColor rgb="FFF8FAFB"/>
+        <bgColor rgb="FFF8FAFB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8F4F8"/>
-        <bgColor rgb="00E8F4F8"/>
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor rgb="FFE8F4F8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFD1ECF1"/>
+        <bgColor rgb="FFD1ECF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F5E9"/>
+        <bgColor rgb="FFE8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,31 +200,57 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00BDC3C7"/>
+        <color rgb="FFBDC3C7"/>
       </left>
       <right style="thin">
-        <color rgb="00BDC3C7"/>
+        <color rgb="FFBDC3C7"/>
       </right>
       <top style="thin">
-        <color rgb="00BDC3C7"/>
+        <color rgb="FFBDC3C7"/>
       </top>
       <bottom style="medium">
-        <color rgb="002C3E50"/>
+        <color rgb="FF2C3E50"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00DEE2E6"/>
+        <color rgb="FFDEE2E6"/>
       </left>
       <right style="thin">
-        <color rgb="00DEE2E6"/>
+        <color rgb="FFDEE2E6"/>
       </right>
       <top style="thin">
-        <color rgb="00DEE2E6"/>
+        <color rgb="FFDEE2E6"/>
       </top>
       <bottom style="thin">
-        <color rgb="00DEE2E6"/>
+        <color rgb="FFDEE2E6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDC3C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -190,11 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -203,133 +275,123 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -339,13 +401,13 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -355,7 +417,9 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -655,13 +719,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
@@ -673,92 +737,91 @@
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
     </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>[VENDOR LOGO]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1"/>
-    <row r="4" ht="40" customHeight="1">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1">
-      <c r="B5" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1"/>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>[DOCUMENT TITLE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>Configuration Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Generated:</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Generated:</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>November 16, 2025</t>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>November 26, 2025</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Solution:</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Customer:</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Data table for configuration</t>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Version:</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>[Customer Name]</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Version:</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Status:</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>DRAFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="40" customHeight="1"/>
-    <row r="13" ht="30" customHeight="1">
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>eoframework.org</t>
         </is>
@@ -774,2696 +837,2791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="33" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="25" customWidth="1" min="11" max="11"/>
-    <col width="38" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Configuration Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Parameter Name</t>
         </is>
       </c>
-      <c r="B1" s="19" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="19" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="D1" s="19" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Default Value</t>
         </is>
       </c>
-      <c r="E1" s="19" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F1" s="19" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
-      <c r="G1" s="19" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>Data Type</t>
         </is>
       </c>
-      <c r="H1" s="19" t="inlineStr">
+      <c r="H2" s="36" t="inlineStr">
         <is>
           <t>Validation Rules</t>
         </is>
       </c>
-      <c r="I1" s="19" t="inlineStr">
+      <c r="I2" s="36" t="inlineStr">
         <is>
           <t>Security Level</t>
         </is>
       </c>
-      <c r="J1" s="19" t="inlineStr">
+      <c r="J2" s="36" t="inlineStr">
         <is>
           <t>Owner Team</t>
         </is>
       </c>
-      <c r="K1" s="19" t="inlineStr">
+      <c r="K2" s="36" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="L1" s="19" t="inlineStr">
+      <c r="L2" s="36" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="M1" s="19" t="inlineStr">
+      <c r="M2" s="36" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="20" t="inlineStr">
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>APP_NAME</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B3" s="38" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C2" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D2" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E2" s="20" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>[Solution Name]</t>
+        </is>
+      </c>
+      <c r="E3" s="38" t="inlineStr">
         <is>
           <t>Application identifier for logging and monitoring</t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" s="20" t="inlineStr">
+      <c r="F3" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H2" s="20" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>Max 50 characters</t>
         </is>
       </c>
-      <c r="I2" s="20" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J3" s="38" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K2" s="20" t="n">
-        <v/>
-      </c>
-      <c r="L2" s="20" t="inlineStr">
+      <c r="K3" s="38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L3" s="38" t="inlineStr">
         <is>
           <t>Used in logs and metrics</t>
         </is>
       </c>
-      <c r="M2" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="22" t="inlineStr">
+      <c r="M3" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>APP_VERSION</t>
         </is>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D4" s="41" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Current application version</t>
         </is>
       </c>
-      <c r="F3" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="22" t="inlineStr">
+      <c r="F4" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H3" s="22" t="inlineStr">
+      <c r="H4" s="41" t="inlineStr">
         <is>
           <t>Semantic versioning format</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
+      <c r="I4" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
+      <c r="J4" s="41" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K3" s="22" t="n">
-        <v/>
-      </c>
-      <c r="L3" s="22" t="inlineStr">
+      <c r="K4" s="41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L4" s="41" t="inlineStr">
         <is>
           <t>Updated with each release</t>
         </is>
       </c>
-      <c r="M3" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="20" t="inlineStr">
+      <c r="M4" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>APP_ENVIRONMENT</t>
         </is>
       </c>
-      <c r="B4" s="20" t="inlineStr">
+      <c r="B5" s="38" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D4" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E4" s="20" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>development</t>
+        </is>
+      </c>
+      <c r="E5" s="38" t="inlineStr">
         <is>
           <t>Deployment environment identifier</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="20" t="inlineStr">
+      <c r="F5" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H4" s="20" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>development|staging|production</t>
         </is>
       </c>
-      <c r="I4" s="20" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J5" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K4" s="20" t="n">
-        <v/>
-      </c>
-      <c r="L4" s="20" t="inlineStr">
+      <c r="K5" s="38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L5" s="38" t="inlineStr">
         <is>
           <t>Controls feature flags and logging</t>
         </is>
       </c>
-      <c r="M4" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="22" t="inlineStr">
+      <c r="M5" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>APP_PORT</t>
         </is>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D5" s="23" t="n">
-        <v>8080</v>
-      </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="C6" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D6" s="41" t="inlineStr">
+        <is>
+          <t>8080</t>
+        </is>
+      </c>
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Port number for application server</t>
         </is>
       </c>
-      <c r="F5" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="22" t="inlineStr">
+      <c r="F6" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H5" s="22" t="inlineStr">
+      <c r="H6" s="41" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
+      <c r="I6" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
+      <c r="J6" s="41" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K5" s="22" t="inlineStr">
+      <c r="K6" s="41" t="inlineStr">
         <is>
           <t>Network configuration</t>
         </is>
       </c>
-      <c r="L5" s="22" t="inlineStr">
+      <c r="L6" s="41" t="inlineStr">
         <is>
           <t>Ensure no port conflicts</t>
         </is>
       </c>
-      <c r="M5" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="20" t="inlineStr">
+      <c r="M6" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="37" t="inlineStr">
         <is>
           <t>APP_LOG_LEVEL</t>
         </is>
       </c>
-      <c r="B6" s="20" t="inlineStr">
+      <c r="B7" s="38" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C6" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="20" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D7" s="38" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="E7" s="38" t="inlineStr">
         <is>
           <t>Logging verbosity level</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="20" t="inlineStr">
+      <c r="F7" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H6" s="20" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>debug|info|warn|error</t>
         </is>
       </c>
-      <c r="I6" s="20" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J6" s="20" t="inlineStr">
+      <c r="J7" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K6" s="20" t="inlineStr">
+      <c r="K7" s="38" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L6" s="20" t="inlineStr">
+      <c r="L7" s="38" t="inlineStr">
         <is>
           <t>Production should use warn or error</t>
         </is>
       </c>
-      <c r="M6" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="inlineStr">
+      <c r="M7" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>DB_HOST</t>
         </is>
       </c>
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C7" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E7" s="22" t="inlineStr">
+      <c r="C8" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D8" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Database server hostname or IP</t>
         </is>
       </c>
-      <c r="F7" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" s="22" t="inlineStr">
+      <c r="F8" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H7" s="22" t="inlineStr">
+      <c r="H8" s="41" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I7" s="22" t="inlineStr">
+      <c r="I8" s="42" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J7" s="22" t="inlineStr">
+      <c r="J8" s="41" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K7" s="22" t="inlineStr">
+      <c r="K8" s="41" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L7" s="22" t="inlineStr">
+      <c r="L8" s="41" t="inlineStr">
         <is>
           <t>Use FQDN for production</t>
         </is>
       </c>
-      <c r="M7" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="inlineStr">
+      <c r="M8" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="37" t="inlineStr">
         <is>
           <t>DB_PORT</t>
         </is>
       </c>
-      <c r="B8" s="20" t="inlineStr">
+      <c r="B9" s="38" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C8" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>5432</v>
-      </c>
-      <c r="E8" s="20" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D9" s="38" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="E9" s="38" t="inlineStr">
         <is>
           <t>Database server port</t>
         </is>
       </c>
-      <c r="F8" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="20" t="inlineStr">
+      <c r="F9" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H8" s="20" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I8" s="20" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J8" s="20" t="inlineStr">
+      <c r="J9" s="38" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K8" s="20" t="inlineStr">
+      <c r="K9" s="38" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L8" s="20" t="inlineStr">
+      <c r="L9" s="38" t="inlineStr">
         <is>
           <t>PostgreSQL default port</t>
         </is>
       </c>
-      <c r="M8" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="inlineStr">
+      <c r="M9" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>DB_NAME</t>
         </is>
       </c>
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C9" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E9" s="22" t="inlineStr">
+      <c r="C10" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D10" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Database name to connect to</t>
         </is>
       </c>
-      <c r="F9" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="22" t="inlineStr">
+      <c r="F10" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H9" s="22" t="inlineStr">
+      <c r="H10" s="41" t="inlineStr">
         <is>
           <t>Valid database identifier</t>
         </is>
       </c>
-      <c r="I9" s="22" t="inlineStr">
+      <c r="I10" s="42" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J9" s="22" t="inlineStr">
+      <c r="J10" s="41" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K9" s="22" t="inlineStr">
+      <c r="K10" s="41" t="inlineStr">
         <is>
           <t>Database creation</t>
         </is>
       </c>
-      <c r="L9" s="22" t="inlineStr">
+      <c r="L10" s="41" t="inlineStr">
         <is>
           <t>Must exist before deployment</t>
         </is>
       </c>
-      <c r="M9" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20" t="inlineStr">
+      <c r="M10" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="37" t="inlineStr">
         <is>
           <t>DB_USERNAME</t>
         </is>
       </c>
-      <c r="B10" s="20" t="inlineStr">
+      <c r="B11" s="38" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C10" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E10" s="20" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D11" s="38" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E11" s="38" t="inlineStr">
         <is>
           <t>Database connection username</t>
         </is>
       </c>
-      <c r="F10" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" s="20" t="inlineStr">
+      <c r="F11" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H10" s="20" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>Valid username format</t>
         </is>
       </c>
-      <c r="I10" s="20" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J10" s="20" t="inlineStr">
+      <c r="J11" s="38" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K10" s="20" t="inlineStr">
+      <c r="K11" s="38" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L10" s="20" t="inlineStr">
+      <c r="L11" s="38" t="inlineStr">
         <is>
           <t>Use service account</t>
         </is>
       </c>
-      <c r="M10" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="inlineStr">
+      <c r="M11" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>DB_PASSWORD</t>
         </is>
       </c>
-      <c r="B11" s="22" t="inlineStr">
+      <c r="B12" s="41" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C11" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="C12" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D12" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>Database connection password</t>
         </is>
       </c>
-      <c r="F11" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" s="22" t="inlineStr">
+      <c r="F12" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H11" s="22" t="inlineStr">
+      <c r="H12" s="41" t="inlineStr">
         <is>
           <t>Min 12 chars with complexity</t>
         </is>
       </c>
-      <c r="I11" s="22" t="inlineStr">
+      <c r="I12" s="42" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J11" s="22" t="inlineStr">
+      <c r="J12" s="41" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K11" s="22" t="inlineStr">
+      <c r="K12" s="41" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L11" s="22" t="inlineStr">
+      <c r="L12" s="41" t="inlineStr">
         <is>
           <t>Store in secrets manager</t>
         </is>
       </c>
-      <c r="M11" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20" t="inlineStr">
+      <c r="M12" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="37" t="inlineStr">
         <is>
           <t>DB_SSL_MODE</t>
         </is>
       </c>
-      <c r="B12" s="20" t="inlineStr">
+      <c r="B13" s="38" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C12" s="20" t="inlineStr">
+      <c r="C13" s="39" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="D12" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
+      <c r="D13" s="38" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E13" s="38" t="inlineStr">
         <is>
           <t>SSL connection requirement</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" s="20" t="inlineStr">
+      <c r="F13" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H12" s="20" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>disable|allow|prefer|require</t>
         </is>
       </c>
-      <c r="I12" s="20" t="inlineStr">
+      <c r="I13" s="39" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J12" s="20" t="inlineStr">
+      <c r="J13" s="38" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K12" s="20" t="inlineStr">
+      <c r="K13" s="38" t="inlineStr">
         <is>
           <t>SSL certificates</t>
         </is>
       </c>
-      <c r="L12" s="20" t="inlineStr">
+      <c r="L13" s="38" t="inlineStr">
         <is>
           <t>Always require for production</t>
         </is>
       </c>
-      <c r="M12" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="inlineStr">
+      <c r="M13" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="40" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B14" s="41" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C13" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="22" t="inlineStr">
+      <c r="C14" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D14" s="41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" s="41" t="inlineStr">
         <is>
           <t>Minimum database connections in pool</t>
         </is>
       </c>
-      <c r="F13" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" s="22" t="inlineStr">
+      <c r="F14" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="41" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H13" s="22" t="inlineStr">
+      <c r="H14" s="41" t="inlineStr">
         <is>
           <t>1-100</t>
         </is>
       </c>
-      <c r="I13" s="22" t="inlineStr">
+      <c r="I14" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J13" s="22" t="inlineStr">
+      <c r="J14" s="41" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K13" s="22" t="inlineStr">
+      <c r="K14" s="41" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="L13" s="22" t="inlineStr">
+      <c r="L14" s="41" t="inlineStr">
         <is>
           <t>Tune based on load patterns</t>
         </is>
       </c>
-      <c r="M13" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="inlineStr">
+      <c r="M14" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="37" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="B14" s="20" t="inlineStr">
+      <c r="B15" s="38" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C14" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="20" t="inlineStr">
+      <c r="C15" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D15" s="38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E15" s="38" t="inlineStr">
         <is>
           <t>Maximum database connections in pool</t>
         </is>
       </c>
-      <c r="F14" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="20" t="inlineStr">
+      <c r="F15" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H14" s="20" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t>5-500</t>
         </is>
       </c>
-      <c r="I14" s="20" t="inlineStr">
+      <c r="I15" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J14" s="20" t="inlineStr">
+      <c r="J15" s="38" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K14" s="20" t="inlineStr">
+      <c r="K15" s="38" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="L14" s="20" t="inlineStr">
+      <c r="L15" s="38" t="inlineStr">
         <is>
           <t>Monitor connection usage</t>
         </is>
       </c>
-      <c r="M14" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="inlineStr">
+      <c r="M15" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1">
+      <c r="A16" s="40" t="inlineStr">
         <is>
           <t>CACHE_HOST</t>
         </is>
       </c>
-      <c r="B15" s="22" t="inlineStr">
+      <c r="B16" s="41" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C15" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E15" s="22" t="inlineStr">
+      <c r="C16" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D16" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>Redis cache server hostname</t>
         </is>
       </c>
-      <c r="F15" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" s="22" t="inlineStr">
+      <c r="F16" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H15" s="22" t="inlineStr">
+      <c r="H16" s="41" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I15" s="22" t="inlineStr">
+      <c r="I16" s="42" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J15" s="22" t="inlineStr">
+      <c r="J16" s="41" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K15" s="22" t="inlineStr">
+      <c r="K16" s="41" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L15" s="22" t="inlineStr">
+      <c r="L16" s="41" t="inlineStr">
         <is>
           <t>Use Redis cluster for HA</t>
         </is>
       </c>
-      <c r="M15" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
+      <c r="M16" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="37" t="inlineStr">
         <is>
           <t>CACHE_PORT</t>
         </is>
       </c>
-      <c r="B16" s="20" t="inlineStr">
+      <c r="B17" s="38" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C16" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n">
-        <v>6379</v>
-      </c>
-      <c r="E16" s="20" t="inlineStr">
+      <c r="C17" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D17" s="38" t="inlineStr">
+        <is>
+          <t>6379</t>
+        </is>
+      </c>
+      <c r="E17" s="38" t="inlineStr">
         <is>
           <t>Redis cache server port</t>
         </is>
       </c>
-      <c r="F16" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" s="20" t="inlineStr">
+      <c r="F17" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H16" s="20" t="inlineStr">
+      <c r="H17" s="38" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I16" s="20" t="inlineStr">
+      <c r="I17" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J16" s="20" t="inlineStr">
+      <c r="J17" s="38" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K16" s="20" t="inlineStr">
+      <c r="K17" s="38" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L16" s="20" t="inlineStr">
+      <c r="L17" s="38" t="inlineStr">
         <is>
           <t>Redis default port</t>
         </is>
       </c>
-      <c r="M16" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="inlineStr">
+      <c r="M17" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>CACHE_PASSWORD</t>
         </is>
       </c>
-      <c r="B17" s="22" t="inlineStr">
+      <c r="B18" s="41" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C17" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D17" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E17" s="22" t="inlineStr">
+      <c r="C18" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D18" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E18" s="41" t="inlineStr">
         <is>
           <t>Redis authentication password</t>
         </is>
       </c>
-      <c r="F17" s="22" t="inlineStr">
+      <c r="F18" s="42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G17" s="22" t="inlineStr">
+      <c r="G18" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H17" s="22" t="inlineStr">
+      <c r="H18" s="41" t="inlineStr">
         <is>
           <t>Min 8 characters</t>
         </is>
       </c>
-      <c r="I17" s="22" t="inlineStr">
+      <c r="I18" s="42" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J17" s="22" t="inlineStr">
+      <c r="J18" s="41" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K17" s="22" t="inlineStr">
+      <c r="K18" s="41" t="inlineStr">
         <is>
           <t>Redis configuration</t>
         </is>
       </c>
-      <c r="L17" s="22" t="inlineStr">
+      <c r="L18" s="41" t="inlineStr">
         <is>
           <t>Optional if Redis AUTH disabled</t>
         </is>
       </c>
-      <c r="M17" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20" t="inlineStr">
+      <c r="M18" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="37" t="inlineStr">
         <is>
           <t>CACHE_TTL</t>
         </is>
       </c>
-      <c r="B18" s="20" t="inlineStr">
+      <c r="B19" s="38" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n">
-        <v>3600</v>
-      </c>
-      <c r="E18" s="20" t="inlineStr">
+      <c r="C19" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D19" s="38" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="E19" s="38" t="inlineStr">
         <is>
           <t>Default cache time-to-live in seconds</t>
         </is>
       </c>
-      <c r="F18" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" s="20" t="inlineStr">
+      <c r="F19" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H18" s="20" t="inlineStr">
+      <c r="H19" s="38" t="inlineStr">
         <is>
           <t>60-86400</t>
         </is>
       </c>
-      <c r="I18" s="20" t="inlineStr">
+      <c r="I19" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J18" s="20" t="inlineStr">
+      <c r="J19" s="38" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K18" s="20" t="inlineStr">
+      <c r="K19" s="38" t="inlineStr">
         <is>
           <t>Cache strategy</t>
         </is>
       </c>
-      <c r="L18" s="20" t="inlineStr">
+      <c r="L19" s="38" t="inlineStr">
         <is>
           <t>Tune based on data patterns</t>
         </is>
       </c>
-      <c r="M18" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="inlineStr">
+      <c r="M19" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1">
+      <c r="A20" s="40" t="inlineStr">
         <is>
           <t>JWT_SECRET</t>
         </is>
       </c>
-      <c r="B19" s="22" t="inlineStr">
+      <c r="B20" s="41" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C19" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D19" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E19" s="22" t="inlineStr">
+      <c r="C20" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D20" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>Secret key for JWT token signing</t>
         </is>
       </c>
-      <c r="F19" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="22" t="inlineStr">
+      <c r="F20" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H19" s="22" t="inlineStr">
+      <c r="H20" s="41" t="inlineStr">
         <is>
           <t>Min 32 chars base64</t>
         </is>
       </c>
-      <c r="I19" s="22" t="inlineStr">
+      <c r="I20" s="42" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J19" s="22" t="inlineStr">
+      <c r="J20" s="41" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K19" s="22" t="inlineStr">
+      <c r="K20" s="41" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-      <c r="L19" s="22" t="inlineStr">
+      <c r="L20" s="41" t="inlineStr">
         <is>
           <t>Rotate regularly</t>
         </is>
       </c>
-      <c r="M19" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="inlineStr">
+      <c r="M20" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="26" customHeight="1">
+      <c r="A21" s="37" t="inlineStr">
         <is>
           <t>ENCRYPTION_KEY</t>
         </is>
       </c>
-      <c r="B20" s="20" t="inlineStr">
+      <c r="B21" s="38" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E20" s="20" t="inlineStr">
+      <c r="C21" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D21" s="38" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E21" s="38" t="inlineStr">
         <is>
           <t>Key for data encryption at rest</t>
         </is>
       </c>
-      <c r="F20" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="20" t="inlineStr">
+      <c r="F21" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H20" s="20" t="inlineStr">
+      <c r="H21" s="38" t="inlineStr">
         <is>
           <t>256-bit key base64</t>
         </is>
       </c>
-      <c r="I20" s="20" t="inlineStr">
+      <c r="I21" s="39" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J20" s="20" t="inlineStr">
+      <c r="J21" s="38" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K20" s="20" t="inlineStr">
+      <c r="K21" s="38" t="inlineStr">
         <is>
           <t>Encryption service</t>
         </is>
       </c>
-      <c r="L20" s="20" t="inlineStr">
+      <c r="L21" s="38" t="inlineStr">
         <is>
           <t>Use key management service</t>
         </is>
       </c>
-      <c r="M20" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="inlineStr">
+      <c r="M21" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1">
+      <c r="A22" s="40" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="B21" s="22" t="inlineStr">
+      <c r="B22" s="41" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C21" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D21" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E21" s="22" t="inlineStr">
+      <c r="C22" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D22" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E22" s="41" t="inlineStr">
         <is>
           <t>API authentication key</t>
         </is>
       </c>
-      <c r="F21" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="22" t="inlineStr">
+      <c r="F22" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H21" s="22" t="inlineStr">
+      <c r="H22" s="41" t="inlineStr">
         <is>
           <t>UUID or secure random</t>
         </is>
       </c>
-      <c r="I21" s="22" t="inlineStr">
+      <c r="I22" s="42" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J21" s="22" t="inlineStr">
+      <c r="J22" s="41" t="inlineStr">
         <is>
           <t>API Team</t>
         </is>
       </c>
-      <c r="K21" s="22" t="inlineStr">
+      <c r="K22" s="41" t="inlineStr">
         <is>
           <t>External services</t>
         </is>
       </c>
-      <c r="L21" s="22" t="inlineStr">
+      <c r="L22" s="41" t="inlineStr">
         <is>
           <t>Unique per environment</t>
         </is>
       </c>
-      <c r="M21" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20" t="inlineStr">
+      <c r="M22" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="26" customHeight="1">
+      <c r="A23" s="37" t="inlineStr">
         <is>
           <t>CORS_ORIGINS</t>
         </is>
       </c>
-      <c r="B22" s="20" t="inlineStr">
+      <c r="B23" s="38" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C22" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="20" t="inlineStr">
+      <c r="C23" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D23" s="38" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E23" s="38" t="inlineStr">
         <is>
           <t>Allowed CORS origins</t>
         </is>
       </c>
-      <c r="F22" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="20" t="inlineStr">
+      <c r="F23" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H22" s="20" t="inlineStr">
+      <c r="H23" s="38" t="inlineStr">
         <is>
           <t>Comma-separated URLs</t>
         </is>
       </c>
-      <c r="I22" s="20" t="inlineStr">
+      <c r="I23" s="39" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J22" s="20" t="inlineStr">
+      <c r="J23" s="38" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K22" s="20" t="inlineStr">
+      <c r="K23" s="38" t="inlineStr">
         <is>
           <t>Frontend domains</t>
         </is>
       </c>
-      <c r="L22" s="20" t="inlineStr">
+      <c r="L23" s="38" t="inlineStr">
         <is>
           <t>Restrict to known domains</t>
         </is>
       </c>
-      <c r="M22" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="inlineStr">
+      <c r="M23" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="26" customHeight="1">
+      <c r="A24" s="40" t="inlineStr">
         <is>
           <t>SERVICE_ENDPOINT</t>
         </is>
       </c>
-      <c r="B23" s="22" t="inlineStr">
+      <c r="B24" s="41" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C23" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D23" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E23" s="22" t="inlineStr">
+      <c r="C24" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D24" s="41" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E24" s="41" t="inlineStr">
         <is>
           <t>External service API endpoint</t>
         </is>
       </c>
-      <c r="F23" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" s="22" t="inlineStr">
+      <c r="F24" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H23" s="22" t="inlineStr">
+      <c r="H24" s="41" t="inlineStr">
         <is>
           <t>Valid HTTPS URL</t>
         </is>
       </c>
-      <c r="I23" s="22" t="inlineStr">
+      <c r="I24" s="42" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J23" s="22" t="inlineStr">
+      <c r="J24" s="41" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K23" s="22" t="inlineStr">
+      <c r="K24" s="41" t="inlineStr">
         <is>
           <t>Service availability</t>
         </is>
       </c>
-      <c r="L23" s="22" t="inlineStr">
+      <c r="L24" s="41" t="inlineStr">
         <is>
           <t>Use load balancer URL</t>
         </is>
       </c>
-      <c r="M23" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="inlineStr">
+      <c r="M24" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="26" customHeight="1">
+      <c r="A25" s="37" t="inlineStr">
         <is>
           <t>SERVICE_API_KEY</t>
         </is>
       </c>
-      <c r="B24" s="20" t="inlineStr">
+      <c r="B25" s="38" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C24" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E24" s="20" t="inlineStr">
+      <c r="C25" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D25" s="38" t="inlineStr">
+        <is>
+          <t>[********]</t>
+        </is>
+      </c>
+      <c r="E25" s="38" t="inlineStr">
         <is>
           <t>API key for external service</t>
         </is>
       </c>
-      <c r="F24" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" s="20" t="inlineStr">
+      <c r="F25" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H24" s="20" t="inlineStr">
+      <c r="H25" s="38" t="inlineStr">
         <is>
           <t>Provider-specific format</t>
         </is>
       </c>
-      <c r="I24" s="20" t="inlineStr">
+      <c r="I25" s="39" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J24" s="20" t="inlineStr">
+      <c r="J25" s="38" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K24" s="20" t="inlineStr">
+      <c r="K25" s="38" t="inlineStr">
         <is>
           <t>Service registration</t>
         </is>
       </c>
-      <c r="L24" s="20" t="inlineStr">
+      <c r="L25" s="38" t="inlineStr">
         <is>
           <t>Obtain from service provider</t>
         </is>
       </c>
-      <c r="M24" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="inlineStr">
+      <c r="M25" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="26" customHeight="1">
+      <c r="A26" s="40" t="inlineStr">
         <is>
           <t>SERVICE_TIMEOUT</t>
         </is>
       </c>
-      <c r="B25" s="22" t="inlineStr">
+      <c r="B26" s="41" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C25" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D25" s="23" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E25" s="22" t="inlineStr">
+      <c r="C26" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D26" s="41" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="E26" s="41" t="inlineStr">
         <is>
           <t>Service call timeout in milliseconds</t>
         </is>
       </c>
-      <c r="F25" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" s="22" t="inlineStr">
+      <c r="F26" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="41" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H25" s="22" t="inlineStr">
+      <c r="H26" s="41" t="inlineStr">
         <is>
           <t>1000-300000</t>
         </is>
       </c>
-      <c r="I25" s="22" t="inlineStr">
+      <c r="I26" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J25" s="22" t="inlineStr">
+      <c r="J26" s="41" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K25" s="22" t="inlineStr">
+      <c r="K26" s="41" t="inlineStr">
         <is>
           <t>Network latency</t>
         </is>
       </c>
-      <c r="L25" s="22" t="inlineStr">
+      <c r="L26" s="41" t="inlineStr">
         <is>
           <t>Adjust based on SLA</t>
         </is>
       </c>
-      <c r="M25" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20" t="inlineStr">
+      <c r="M26" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="26" customHeight="1">
+      <c r="A27" s="37" t="inlineStr">
         <is>
           <t>METRICS_ENABLED</t>
         </is>
       </c>
-      <c r="B26" s="20" t="inlineStr">
+      <c r="B27" s="38" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C26" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E26" s="20" t="inlineStr">
+      <c r="C27" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D27" s="38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="E27" s="38" t="inlineStr">
         <is>
           <t>Enable metrics collection</t>
         </is>
       </c>
-      <c r="F26" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" s="20" t="inlineStr">
+      <c r="F27" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" s="38" t="inlineStr">
         <is>
           <t>Boolean</t>
         </is>
       </c>
-      <c r="H26" s="20" t="inlineStr">
+      <c r="H27" s="38" t="inlineStr">
         <is>
           <t>true|false</t>
         </is>
       </c>
-      <c r="I26" s="20" t="inlineStr">
+      <c r="I27" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J26" s="20" t="inlineStr">
+      <c r="J27" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K26" s="20" t="inlineStr">
+      <c r="K27" s="38" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L26" s="20" t="inlineStr">
+      <c r="L27" s="38" t="inlineStr">
         <is>
           <t>Always enable for production</t>
         </is>
       </c>
-      <c r="M26" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="inlineStr">
+      <c r="M27" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="26" customHeight="1">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>HEALTH_CHECK_PATH</t>
         </is>
       </c>
-      <c r="B27" s="22" t="inlineStr">
+      <c r="B28" s="41" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C27" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D27" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E27" s="22" t="inlineStr">
+      <c r="C28" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D28" s="41" t="inlineStr">
+        <is>
+          <t>/health</t>
+        </is>
+      </c>
+      <c r="E28" s="41" t="inlineStr">
         <is>
           <t>Health check endpoint path</t>
         </is>
       </c>
-      <c r="F27" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" s="22" t="inlineStr">
+      <c r="F28" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H27" s="22" t="inlineStr">
+      <c r="H28" s="41" t="inlineStr">
         <is>
           <t>Valid URL path</t>
         </is>
       </c>
-      <c r="I27" s="22" t="inlineStr">
+      <c r="I28" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J27" s="22" t="inlineStr">
+      <c r="J28" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K27" s="22" t="inlineStr">
+      <c r="K28" s="41" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L27" s="22" t="inlineStr">
+      <c r="L28" s="41" t="inlineStr">
         <is>
           <t>Must return 200 for healthy</t>
         </is>
       </c>
-      <c r="M27" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="inlineStr">
+      <c r="M28" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="26" customHeight="1">
+      <c r="A29" s="37" t="inlineStr">
         <is>
           <t>PROMETHEUS_PORT</t>
         </is>
       </c>
-      <c r="B28" s="20" t="inlineStr">
+      <c r="B29" s="38" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="n">
-        <v>9090</v>
-      </c>
-      <c r="E28" s="20" t="inlineStr">
+      <c r="C29" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D29" s="38" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="E29" s="38" t="inlineStr">
         <is>
           <t>Port for Prometheus metrics</t>
         </is>
       </c>
-      <c r="F28" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" s="20" t="inlineStr">
+      <c r="F29" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H28" s="20" t="inlineStr">
+      <c r="H29" s="38" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I28" s="20" t="inlineStr">
+      <c r="I29" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J28" s="20" t="inlineStr">
+      <c r="J29" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K28" s="20" t="inlineStr">
+      <c r="K29" s="38" t="inlineStr">
         <is>
           <t>Monitoring stack</t>
         </is>
       </c>
-      <c r="L28" s="20" t="inlineStr">
+      <c r="L29" s="38" t="inlineStr">
         <is>
           <t>Ensure port availability</t>
         </is>
       </c>
-      <c r="M28" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="inlineStr">
+      <c r="M29" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="26" customHeight="1">
+      <c r="A30" s="40" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="B29" s="22" t="inlineStr">
+      <c r="B30" s="41" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C29" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D29" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E29" s="22" t="inlineStr">
+      <c r="C30" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D30" s="41" t="inlineStr">
+        <is>
+          <t>10.0.0.0/16</t>
+        </is>
+      </c>
+      <c r="E30" s="41" t="inlineStr">
         <is>
           <t>VPC CIDR block</t>
         </is>
       </c>
-      <c r="F29" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" s="22" t="inlineStr">
+      <c r="F30" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H29" s="22" t="inlineStr">
+      <c r="H30" s="41" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I29" s="22" t="inlineStr">
+      <c r="I30" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J29" s="22" t="inlineStr">
+      <c r="J30" s="41" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K29" s="22" t="inlineStr">
+      <c r="K30" s="41" t="inlineStr">
         <is>
           <t>IP planning</t>
         </is>
       </c>
-      <c r="L29" s="22" t="inlineStr">
+      <c r="L30" s="41" t="inlineStr">
         <is>
           <t>Plan for future growth</t>
         </is>
       </c>
-      <c r="M29" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="inlineStr">
+      <c r="M30" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="26" customHeight="1">
+      <c r="A31" s="37" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_1</t>
         </is>
       </c>
-      <c r="B30" s="20" t="inlineStr">
+      <c r="B31" s="38" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C30" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E30" s="20" t="inlineStr">
+      <c r="C31" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D31" s="38" t="inlineStr">
+        <is>
+          <t>10.0.1.0/24</t>
+        </is>
+      </c>
+      <c r="E31" s="38" t="inlineStr">
         <is>
           <t>First public subnet CIDR</t>
         </is>
       </c>
-      <c r="F30" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" s="20" t="inlineStr">
+      <c r="F31" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H30" s="20" t="inlineStr">
+      <c r="H31" s="38" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I30" s="20" t="inlineStr">
+      <c r="I31" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J30" s="20" t="inlineStr">
+      <c r="J31" s="38" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K30" s="20" t="inlineStr">
+      <c r="K31" s="38" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L30" s="20" t="inlineStr">
+      <c r="L31" s="38" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M30" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="inlineStr">
+      <c r="M31" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="26" customHeight="1">
+      <c r="A32" s="40" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_2</t>
         </is>
       </c>
-      <c r="B31" s="22" t="inlineStr">
+      <c r="B32" s="41" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C31" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D31" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E31" s="22" t="inlineStr">
+      <c r="C32" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D32" s="41" t="inlineStr">
+        <is>
+          <t>10.0.2.0/24</t>
+        </is>
+      </c>
+      <c r="E32" s="41" t="inlineStr">
         <is>
           <t>Second public subnet CIDR</t>
         </is>
       </c>
-      <c r="F31" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="22" t="inlineStr">
+      <c r="F32" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H31" s="22" t="inlineStr">
+      <c r="H32" s="41" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I31" s="22" t="inlineStr">
+      <c r="I32" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J31" s="22" t="inlineStr">
+      <c r="J32" s="41" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K31" s="22" t="inlineStr">
+      <c r="K32" s="41" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L31" s="22" t="inlineStr">
+      <c r="L32" s="41" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M31" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="inlineStr">
+      <c r="M32" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="26" customHeight="1">
+      <c r="A33" s="37" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_1</t>
         </is>
       </c>
-      <c r="B32" s="20" t="inlineStr">
+      <c r="B33" s="38" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C32" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E32" s="20" t="inlineStr">
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D33" s="38" t="inlineStr">
+        <is>
+          <t>10.0.10.0/24</t>
+        </is>
+      </c>
+      <c r="E33" s="38" t="inlineStr">
         <is>
           <t>First private subnet CIDR</t>
         </is>
       </c>
-      <c r="F32" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G32" s="20" t="inlineStr">
+      <c r="F33" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H32" s="20" t="inlineStr">
+      <c r="H33" s="38" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I32" s="20" t="inlineStr">
+      <c r="I33" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J32" s="20" t="inlineStr">
+      <c r="J33" s="38" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K32" s="20" t="inlineStr">
+      <c r="K33" s="38" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L32" s="20" t="inlineStr">
+      <c r="L33" s="38" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M32" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="22" t="inlineStr">
+      <c r="M33" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="26" customHeight="1">
+      <c r="A34" s="40" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_2</t>
         </is>
       </c>
-      <c r="B33" s="22" t="inlineStr">
+      <c r="B34" s="41" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C33" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D33" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E33" s="22" t="inlineStr">
+      <c r="C34" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D34" s="41" t="inlineStr">
+        <is>
+          <t>10.0.11.0/24</t>
+        </is>
+      </c>
+      <c r="E34" s="41" t="inlineStr">
         <is>
           <t>Second private subnet CIDR</t>
         </is>
       </c>
-      <c r="F33" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G33" s="22" t="inlineStr">
+      <c r="F34" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H33" s="22" t="inlineStr">
+      <c r="H34" s="41" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I33" s="22" t="inlineStr">
+      <c r="I34" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J33" s="22" t="inlineStr">
+      <c r="J34" s="41" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K33" s="22" t="inlineStr">
+      <c r="K34" s="41" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L33" s="22" t="inlineStr">
+      <c r="L34" s="41" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M33" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="20" t="inlineStr">
+      <c r="M34" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="26" customHeight="1">
+      <c r="A35" s="37" t="inlineStr">
         <is>
           <t>DB_SUBNET_1</t>
         </is>
       </c>
-      <c r="B34" s="20" t="inlineStr">
+      <c r="B35" s="38" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C34" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="n">
-        <v/>
-      </c>
-      <c r="E34" s="20" t="inlineStr">
+      <c r="C35" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D35" s="38" t="inlineStr">
+        <is>
+          <t>10.0.20.0/24</t>
+        </is>
+      </c>
+      <c r="E35" s="38" t="inlineStr">
         <is>
           <t>First database subnet CIDR</t>
         </is>
       </c>
-      <c r="F34" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="20" t="inlineStr">
+      <c r="F35" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" s="38" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H34" s="20" t="inlineStr">
+      <c r="H35" s="38" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I34" s="20" t="inlineStr">
+      <c r="I35" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J34" s="20" t="inlineStr">
+      <c r="J35" s="38" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K34" s="20" t="inlineStr">
+      <c r="K35" s="38" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L34" s="20" t="inlineStr">
+      <c r="L35" s="38" t="inlineStr">
         <is>
           <t>Isolated database tier</t>
         </is>
       </c>
-      <c r="M34" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="inlineStr">
+      <c r="M35" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="26" customHeight="1">
+      <c r="A36" s="40" t="inlineStr">
         <is>
           <t>DB_SUBNET_2</t>
         </is>
       </c>
-      <c r="B35" s="22" t="inlineStr">
+      <c r="B36" s="41" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C35" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D35" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E35" s="22" t="inlineStr">
+      <c r="C36" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D36" s="41" t="inlineStr">
+        <is>
+          <t>10.0.21.0/24</t>
+        </is>
+      </c>
+      <c r="E36" s="41" t="inlineStr">
         <is>
           <t>Second database subnet CIDR</t>
         </is>
       </c>
-      <c r="F35" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G35" s="22" t="inlineStr">
+      <c r="F36" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H35" s="22" t="inlineStr">
+      <c r="H36" s="41" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I35" s="22" t="inlineStr">
+      <c r="I36" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J35" s="22" t="inlineStr">
+      <c r="J36" s="41" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K35" s="22" t="inlineStr">
+      <c r="K36" s="41" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L35" s="22" t="inlineStr">
+      <c r="L36" s="41" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M35" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="20" t="inlineStr">
+      <c r="M36" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="26" customHeight="1">
+      <c r="A37" s="37" t="inlineStr">
         <is>
           <t>BACKUP_RETENTION</t>
         </is>
       </c>
-      <c r="B36" s="20" t="inlineStr">
+      <c r="B37" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C36" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="E36" s="20" t="inlineStr">
+      <c r="C37" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D37" s="38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E37" s="38" t="inlineStr">
         <is>
           <t>Backup retention period in days</t>
         </is>
       </c>
-      <c r="F36" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G36" s="20" t="inlineStr">
+      <c r="F37" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H36" s="20" t="inlineStr">
+      <c r="H37" s="38" t="inlineStr">
         <is>
           <t>7-365</t>
         </is>
       </c>
-      <c r="I36" s="20" t="inlineStr">
+      <c r="I37" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J36" s="20" t="inlineStr">
+      <c r="J37" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K36" s="20" t="inlineStr">
+      <c r="K37" s="38" t="inlineStr">
         <is>
           <t>Backup strategy</t>
         </is>
       </c>
-      <c r="L36" s="20" t="inlineStr">
+      <c r="L37" s="38" t="inlineStr">
         <is>
           <t>Comply with data policies</t>
         </is>
       </c>
-      <c r="M36" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="22" t="inlineStr">
+      <c r="M37" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="26" customHeight="1">
+      <c r="A38" s="40" t="inlineStr">
         <is>
           <t>BACKUP_SCHEDULE</t>
         </is>
       </c>
-      <c r="B37" s="22" t="inlineStr">
+      <c r="B38" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C37" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D37" s="23" t="n">
-        <v/>
-      </c>
-      <c r="E37" s="22" t="inlineStr">
+      <c r="C38" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D38" s="41" t="inlineStr">
+        <is>
+          <t>0 2 * * *</t>
+        </is>
+      </c>
+      <c r="E38" s="41" t="inlineStr">
         <is>
           <t>Backup schedule in cron format</t>
         </is>
       </c>
-      <c r="F37" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" s="22" t="inlineStr">
+      <c r="F38" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" s="41" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H37" s="22" t="inlineStr">
+      <c r="H38" s="41" t="inlineStr">
         <is>
           <t>Valid cron expression</t>
         </is>
       </c>
-      <c r="I37" s="22" t="inlineStr">
+      <c r="I38" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J37" s="22" t="inlineStr">
+      <c r="J38" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K37" s="22" t="inlineStr">
+      <c r="K38" s="41" t="inlineStr">
         <is>
           <t>Backup service</t>
         </is>
       </c>
-      <c r="L37" s="22" t="inlineStr">
+      <c r="L38" s="41" t="inlineStr">
         <is>
           <t>Daily at 2 AM UTC</t>
         </is>
       </c>
-      <c r="M37" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="20" t="inlineStr">
+      <c r="M38" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="26" customHeight="1">
+      <c r="A39" s="37" t="inlineStr">
         <is>
           <t>LOG_RETENTION</t>
         </is>
       </c>
-      <c r="B38" s="20" t="inlineStr">
+      <c r="B39" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C38" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="n">
-        <v>90</v>
-      </c>
-      <c r="E38" s="20" t="inlineStr">
+      <c r="C39" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D39" s="38" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E39" s="38" t="inlineStr">
         <is>
           <t>Log retention period in days</t>
         </is>
       </c>
-      <c r="F38" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G38" s="20" t="inlineStr">
+      <c r="F39" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H38" s="20" t="inlineStr">
+      <c r="H39" s="38" t="inlineStr">
         <is>
           <t>30-365</t>
         </is>
       </c>
-      <c r="I38" s="20" t="inlineStr">
+      <c r="I39" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J38" s="20" t="inlineStr">
+      <c r="J39" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K38" s="20" t="inlineStr">
+      <c r="K39" s="38" t="inlineStr">
         <is>
           <t>Log management</t>
         </is>
       </c>
-      <c r="L38" s="20" t="inlineStr">
+      <c r="L39" s="38" t="inlineStr">
         <is>
           <t>Balance cost and compliance</t>
         </is>
       </c>
-      <c r="M38" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="22" t="inlineStr">
+      <c r="M39" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="26" customHeight="1">
+      <c r="A40" s="40" t="inlineStr">
         <is>
           <t>SCALING_MIN_INSTANCES</t>
         </is>
       </c>
-      <c r="B39" s="22" t="inlineStr">
+      <c r="B40" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C39" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D39" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="22" t="inlineStr">
+      <c r="C40" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D40" s="41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E40" s="41" t="inlineStr">
         <is>
           <t>Minimum number of instances</t>
         </is>
       </c>
-      <c r="F39" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G39" s="22" t="inlineStr">
+      <c r="F40" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" s="41" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H39" s="22" t="inlineStr">
+      <c r="H40" s="41" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="I39" s="22" t="inlineStr">
+      <c r="I40" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J39" s="22" t="inlineStr">
+      <c r="J40" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K39" s="22" t="inlineStr">
+      <c r="K40" s="41" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L39" s="22" t="inlineStr">
+      <c r="L40" s="41" t="inlineStr">
         <is>
           <t>Ensure high availability</t>
         </is>
       </c>
-      <c r="M39" s="22" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="20" t="inlineStr">
+      <c r="M40" s="42" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="26" customHeight="1">
+      <c r="A41" s="37" t="inlineStr">
         <is>
           <t>SCALING_MAX_INSTANCES</t>
         </is>
       </c>
-      <c r="B40" s="20" t="inlineStr">
+      <c r="B41" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C40" s="20" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" s="20" t="inlineStr">
+      <c r="C41" s="39" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D41" s="38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E41" s="38" t="inlineStr">
         <is>
           <t>Maximum number of instances</t>
         </is>
       </c>
-      <c r="F40" s="20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G40" s="20" t="inlineStr">
+      <c r="F41" s="39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" s="38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H40" s="20" t="inlineStr">
+      <c r="H41" s="38" t="inlineStr">
         <is>
           <t>5-100</t>
         </is>
       </c>
-      <c r="I40" s="20" t="inlineStr">
+      <c r="I41" s="39" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J40" s="20" t="inlineStr">
+      <c r="J41" s="38" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K40" s="20" t="inlineStr">
+      <c r="K41" s="38" t="inlineStr">
         <is>
           <t>Cost management</t>
         </is>
       </c>
-      <c r="L40" s="20" t="inlineStr">
+      <c r="L41" s="38" t="inlineStr">
         <is>
           <t>Set based on peak load</t>
         </is>
       </c>
-      <c r="M40" s="20" t="inlineStr">
-        <is>
-          <t>[DATE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="22" t="inlineStr">
+      <c r="M41" s="39" t="inlineStr">
+        <is>
+          <t>[DATE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="26" customHeight="1">
+      <c r="A42" s="40" t="inlineStr">
         <is>
           <t>SCALING_TARGET_CPU</t>
         </is>
       </c>
-      <c r="B41" s="22" t="inlineStr">
+      <c r="B42" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C41" s="22" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D41" s="23" t="n">
-        <v>70</v>
-      </c>
-      <c r="E41" s="22" t="inlineStr">
+      <c r="C42" s="42" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D42" s="41" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E42" s="41" t="inlineStr">
         <is>
           <t>CPU threshold for auto-scaling</t>
         </is>
       </c>
-      <c r="F41" s="22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G41" s="22" t="inlineStr">
+      <c r="F42" s="42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" s="41" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H41" s="22" t="inlineStr">
+      <c r="H42" s="41" t="inlineStr">
         <is>
           <t>50-90</t>
         </is>
       </c>
-      <c r="I41" s="22" t="inlineStr">
+      <c r="I42" s="42" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J41" s="22" t="inlineStr">
+      <c r="J42" s="41" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K41" s="22" t="inlineStr">
+      <c r="K42" s="41" t="inlineStr">
         <is>
           <t>Performance monitoring</t>
         </is>
       </c>
-      <c r="L41" s="22" t="inlineStr">
+      <c r="L42" s="41" t="inlineStr">
         <is>
           <t>Tune based on application behavior</t>
         </is>
       </c>
-      <c r="M41" s="22" t="inlineStr">
+      <c r="M42" s="42" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M41"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <autoFilter ref="A2:M42"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,12 +47,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FFCC0000"/>
       <sz val="12"/>
@@ -71,13 +65,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,6 +101,13 @@
       <b val="1"/>
       <color rgb="FFCC0000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -262,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -274,9 +268,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -296,79 +287,79 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -377,7 +368,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -404,11 +395,13 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1238250" cy="314325"/>
+    <ext cx="1708214" cy="365379"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
@@ -417,6 +410,10 @@
         </a:stretch>
       </blipFill>
       <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="209550" y="2032000"/>
+          <a:ext cx="1708214" cy="365379"/>
+        </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
@@ -721,15 +718,15 @@
   </sheetPr>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="32.81640625" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -739,95 +736,89 @@
     </row>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="40" customHeight="1">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>[DOCUMENT TITLE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1">
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Configuration Parameters</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delivery Document</t>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="18" customHeight="1">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Generated:</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>November 27, 2025</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Generated:</t>
+          <t>Solution:</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>November 16, 2025</t>
+          <t>Sample Solution</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Solution:</t>
+          <t>Customer:</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 26, 2025</t>
+          <t>[Customer Name]</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Customer:</t>
+          <t>Version:</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Sample Solution</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Version:</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>[Customer Name]</t>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Draft</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Status:</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="40" customHeight="1"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1"/>
     <row r="12" ht="30" customHeight="1">
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="32" t="inlineStr">
         <is>
           <t>eoframework.org</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -864,2754 +855,2754 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Configuration Parameters</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Parameter Name</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Default Value</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Data Type</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>Validation Rules</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>Security Level</t>
         </is>
       </c>
-      <c r="J2" s="36" t="inlineStr">
+      <c r="J2" s="35" t="inlineStr">
         <is>
           <t>Owner Team</t>
         </is>
       </c>
-      <c r="K2" s="36" t="inlineStr">
+      <c r="K2" s="35" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="L2" s="36" t="inlineStr">
+      <c r="L2" s="35" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="M2" s="36" t="inlineStr">
+      <c r="M2" s="35" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>APP_NAME</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C3" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="C3" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>[Solution Name]</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Application identifier for logging and monitoring</t>
         </is>
       </c>
-      <c r="F3" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="F3" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H3" s="38" t="inlineStr">
+      <c r="H3" s="37" t="inlineStr">
         <is>
           <t>Max 50 characters</t>
         </is>
       </c>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J3" s="38" t="inlineStr">
+      <c r="J3" s="37" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K3" s="38" t="inlineStr">
+      <c r="K3" s="37" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L3" s="38" t="inlineStr">
+      <c r="L3" s="37" t="inlineStr">
         <is>
           <t>Used in logs and metrics</t>
         </is>
       </c>
-      <c r="M3" s="39" t="inlineStr">
+      <c r="M3" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>APP_VERSION</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>1.0.0</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Current application version</t>
         </is>
       </c>
-      <c r="F4" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H4" s="41" t="inlineStr">
+      <c r="H4" s="40" t="inlineStr">
         <is>
           <t>Semantic versioning format</t>
         </is>
       </c>
-      <c r="I4" s="42" t="inlineStr">
+      <c r="I4" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J4" s="41" t="inlineStr">
+      <c r="J4" s="40" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K4" s="41" t="inlineStr">
+      <c r="K4" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L4" s="41" t="inlineStr">
+      <c r="L4" s="40" t="inlineStr">
         <is>
           <t>Updated with each release</t>
         </is>
       </c>
-      <c r="M4" s="42" t="inlineStr">
+      <c r="M4" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>APP_ENVIRONMENT</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Deployment environment identifier</t>
         </is>
       </c>
-      <c r="F5" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H5" s="38" t="inlineStr">
+      <c r="H5" s="37" t="inlineStr">
         <is>
           <t>development|staging|production</t>
         </is>
       </c>
-      <c r="I5" s="39" t="inlineStr">
+      <c r="I5" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J5" s="38" t="inlineStr">
+      <c r="J5" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K5" s="38" t="inlineStr">
+      <c r="K5" s="37" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L5" s="38" t="inlineStr">
+      <c r="L5" s="37" t="inlineStr">
         <is>
           <t>Controls feature flags and logging</t>
         </is>
       </c>
-      <c r="M5" s="39" t="inlineStr">
+      <c r="M5" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>APP_PORT</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C6" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>8080</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>Port number for application server</t>
         </is>
       </c>
-      <c r="F6" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H6" s="41" t="inlineStr">
+      <c r="H6" s="40" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I6" s="42" t="inlineStr">
+      <c r="I6" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J6" s="41" t="inlineStr">
+      <c r="J6" s="40" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K6" s="41" t="inlineStr">
+      <c r="K6" s="40" t="inlineStr">
         <is>
           <t>Network configuration</t>
         </is>
       </c>
-      <c r="L6" s="41" t="inlineStr">
+      <c r="L6" s="40" t="inlineStr">
         <is>
           <t>Ensure no port conflicts</t>
         </is>
       </c>
-      <c r="M6" s="42" t="inlineStr">
+      <c r="M6" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>APP_LOG_LEVEL</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Application</t>
         </is>
       </c>
-      <c r="C7" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="C7" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>info</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Logging verbosity level</t>
         </is>
       </c>
-      <c r="F7" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H7" s="38" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>debug|info|warn|error</t>
         </is>
       </c>
-      <c r="I7" s="39" t="inlineStr">
+      <c r="I7" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J7" s="38" t="inlineStr">
+      <c r="J7" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K7" s="38" t="inlineStr">
+      <c r="K7" s="37" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L7" s="38" t="inlineStr">
+      <c r="L7" s="37" t="inlineStr">
         <is>
           <t>Production should use warn or error</t>
         </is>
       </c>
-      <c r="M7" s="39" t="inlineStr">
+      <c r="M7" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>DB_HOST</t>
         </is>
       </c>
-      <c r="B8" s="41" t="inlineStr">
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C8" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D8" s="41" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D8" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="40" t="inlineStr">
         <is>
           <t>Database server hostname or IP</t>
         </is>
       </c>
-      <c r="F8" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H8" s="41" t="inlineStr">
+      <c r="H8" s="40" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I8" s="42" t="inlineStr">
+      <c r="I8" s="41" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J8" s="41" t="inlineStr">
+      <c r="J8" s="40" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K8" s="41" t="inlineStr">
+      <c r="K8" s="40" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L8" s="41" t="inlineStr">
+      <c r="L8" s="40" t="inlineStr">
         <is>
           <t>Use FQDN for production</t>
         </is>
       </c>
-      <c r="M8" s="42" t="inlineStr">
+      <c r="M8" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="36" t="inlineStr">
         <is>
           <t>DB_PORT</t>
         </is>
       </c>
-      <c r="B9" s="38" t="inlineStr">
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C9" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="C9" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D9" s="37" t="inlineStr">
         <is>
           <t>5432</t>
         </is>
       </c>
-      <c r="E9" s="38" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>Database server port</t>
         </is>
       </c>
-      <c r="F9" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="F9" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H9" s="38" t="inlineStr">
+      <c r="H9" s="37" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I9" s="39" t="inlineStr">
+      <c r="I9" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J9" s="38" t="inlineStr">
+      <c r="J9" s="37" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K9" s="38" t="inlineStr">
+      <c r="K9" s="37" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L9" s="38" t="inlineStr">
+      <c r="L9" s="37" t="inlineStr">
         <is>
           <t>PostgreSQL default port</t>
         </is>
       </c>
-      <c r="M9" s="39" t="inlineStr">
+      <c r="M9" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>DB_NAME</t>
         </is>
       </c>
-      <c r="B10" s="41" t="inlineStr">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C10" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D10" s="41" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D10" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="40" t="inlineStr">
         <is>
           <t>Database name to connect to</t>
         </is>
       </c>
-      <c r="F10" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H10" s="41" t="inlineStr">
+      <c r="H10" s="40" t="inlineStr">
         <is>
           <t>Valid database identifier</t>
         </is>
       </c>
-      <c r="I10" s="42" t="inlineStr">
+      <c r="I10" s="41" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J10" s="41" t="inlineStr">
+      <c r="J10" s="40" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K10" s="41" t="inlineStr">
+      <c r="K10" s="40" t="inlineStr">
         <is>
           <t>Database creation</t>
         </is>
       </c>
-      <c r="L10" s="41" t="inlineStr">
+      <c r="L10" s="40" t="inlineStr">
         <is>
           <t>Must exist before deployment</t>
         </is>
       </c>
-      <c r="M10" s="42" t="inlineStr">
+      <c r="M10" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
+      <c r="A11" s="36" t="inlineStr">
         <is>
           <t>DB_USERNAME</t>
         </is>
       </c>
-      <c r="B11" s="38" t="inlineStr">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C11" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D11" s="38" t="inlineStr">
+      <c r="C11" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D11" s="37" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E11" s="38" t="inlineStr">
+      <c r="E11" s="37" t="inlineStr">
         <is>
           <t>Database connection username</t>
         </is>
       </c>
-      <c r="F11" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" s="38" t="inlineStr">
+      <c r="F11" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H11" s="38" t="inlineStr">
+      <c r="H11" s="37" t="inlineStr">
         <is>
           <t>Valid username format</t>
         </is>
       </c>
-      <c r="I11" s="39" t="inlineStr">
+      <c r="I11" s="38" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J11" s="38" t="inlineStr">
+      <c r="J11" s="37" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K11" s="38" t="inlineStr">
+      <c r="K11" s="37" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L11" s="38" t="inlineStr">
+      <c r="L11" s="37" t="inlineStr">
         <is>
           <t>Use service account</t>
         </is>
       </c>
-      <c r="M11" s="39" t="inlineStr">
+      <c r="M11" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="39" t="inlineStr">
         <is>
           <t>DB_PASSWORD</t>
         </is>
       </c>
-      <c r="B12" s="41" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C12" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D12" s="41" t="inlineStr">
+      <c r="C12" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D12" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="E12" s="40" t="inlineStr">
         <is>
           <t>Database connection password</t>
         </is>
       </c>
-      <c r="F12" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="F12" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H12" s="41" t="inlineStr">
+      <c r="H12" s="40" t="inlineStr">
         <is>
           <t>Min 12 chars with complexity</t>
         </is>
       </c>
-      <c r="I12" s="42" t="inlineStr">
+      <c r="I12" s="41" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J12" s="41" t="inlineStr">
+      <c r="J12" s="40" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K12" s="41" t="inlineStr">
+      <c r="K12" s="40" t="inlineStr">
         <is>
           <t>User creation</t>
         </is>
       </c>
-      <c r="L12" s="41" t="inlineStr">
+      <c r="L12" s="40" t="inlineStr">
         <is>
           <t>Store in secrets manager</t>
         </is>
       </c>
-      <c r="M12" s="42" t="inlineStr">
+      <c r="M12" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="37" t="inlineStr">
+      <c r="A13" s="36" t="inlineStr">
         <is>
           <t>DB_SSL_MODE</t>
         </is>
       </c>
-      <c r="B13" s="38" t="inlineStr">
+      <c r="B13" s="37" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C13" s="39" t="inlineStr">
+      <c r="C13" s="38" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="D13" s="38" t="inlineStr">
+      <c r="D13" s="37" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E13" s="38" t="inlineStr">
+      <c r="E13" s="37" t="inlineStr">
         <is>
           <t>SSL connection requirement</t>
         </is>
       </c>
-      <c r="F13" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" s="38" t="inlineStr">
+      <c r="F13" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H13" s="38" t="inlineStr">
+      <c r="H13" s="37" t="inlineStr">
         <is>
           <t>disable|allow|prefer|require</t>
         </is>
       </c>
-      <c r="I13" s="39" t="inlineStr">
+      <c r="I13" s="38" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J13" s="38" t="inlineStr">
+      <c r="J13" s="37" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K13" s="38" t="inlineStr">
+      <c r="K13" s="37" t="inlineStr">
         <is>
           <t>SSL certificates</t>
         </is>
       </c>
-      <c r="L13" s="38" t="inlineStr">
+      <c r="L13" s="37" t="inlineStr">
         <is>
           <t>Always require for production</t>
         </is>
       </c>
-      <c r="M13" s="39" t="inlineStr">
+      <c r="M13" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="B14" s="41" t="inlineStr">
+      <c r="B14" s="40" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C14" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D14" s="41" t="inlineStr">
+      <c r="C14" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D14" s="40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="E14" s="40" t="inlineStr">
         <is>
           <t>Minimum database connections in pool</t>
         </is>
       </c>
-      <c r="F14" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="F14" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="40" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H14" s="41" t="inlineStr">
+      <c r="H14" s="40" t="inlineStr">
         <is>
           <t>1-100</t>
         </is>
       </c>
-      <c r="I14" s="42" t="inlineStr">
+      <c r="I14" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J14" s="41" t="inlineStr">
+      <c r="J14" s="40" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K14" s="41" t="inlineStr">
+      <c r="K14" s="40" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="L14" s="41" t="inlineStr">
+      <c r="L14" s="40" t="inlineStr">
         <is>
           <t>Tune based on load patterns</t>
         </is>
       </c>
-      <c r="M14" s="42" t="inlineStr">
+      <c r="M14" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="37" t="inlineStr">
+      <c r="A15" s="36" t="inlineStr">
         <is>
           <t>DB_POOL_MAX</t>
         </is>
       </c>
-      <c r="B15" s="38" t="inlineStr">
+      <c r="B15" s="37" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C15" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D15" s="38" t="inlineStr">
+      <c r="C15" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D15" s="37" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E15" s="38" t="inlineStr">
+      <c r="E15" s="37" t="inlineStr">
         <is>
           <t>Maximum database connections in pool</t>
         </is>
       </c>
-      <c r="F15" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" s="38" t="inlineStr">
+      <c r="F15" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H15" s="38" t="inlineStr">
+      <c r="H15" s="37" t="inlineStr">
         <is>
           <t>5-500</t>
         </is>
       </c>
-      <c r="I15" s="39" t="inlineStr">
+      <c r="I15" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J15" s="38" t="inlineStr">
+      <c r="J15" s="37" t="inlineStr">
         <is>
           <t>Database Team</t>
         </is>
       </c>
-      <c r="K15" s="38" t="inlineStr">
+      <c r="K15" s="37" t="inlineStr">
         <is>
           <t>DB_POOL_MIN</t>
         </is>
       </c>
-      <c r="L15" s="38" t="inlineStr">
+      <c r="L15" s="37" t="inlineStr">
         <is>
           <t>Monitor connection usage</t>
         </is>
       </c>
-      <c r="M15" s="39" t="inlineStr">
+      <c r="M15" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="40" t="inlineStr">
+      <c r="A16" s="39" t="inlineStr">
         <is>
           <t>CACHE_HOST</t>
         </is>
       </c>
-      <c r="B16" s="41" t="inlineStr">
+      <c r="B16" s="40" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C16" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D16" s="41" t="inlineStr">
+      <c r="C16" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D16" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="E16" s="40" t="inlineStr">
         <is>
           <t>Redis cache server hostname</t>
         </is>
       </c>
-      <c r="F16" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="F16" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H16" s="41" t="inlineStr">
+      <c r="H16" s="40" t="inlineStr">
         <is>
           <t>Valid hostname or IP</t>
         </is>
       </c>
-      <c r="I16" s="42" t="inlineStr">
+      <c r="I16" s="41" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J16" s="41" t="inlineStr">
+      <c r="J16" s="40" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K16" s="41" t="inlineStr">
+      <c r="K16" s="40" t="inlineStr">
         <is>
           <t>Network connectivity</t>
         </is>
       </c>
-      <c r="L16" s="41" t="inlineStr">
+      <c r="L16" s="40" t="inlineStr">
         <is>
           <t>Use Redis cluster for HA</t>
         </is>
       </c>
-      <c r="M16" s="42" t="inlineStr">
+      <c r="M16" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="37" t="inlineStr">
+      <c r="A17" s="36" t="inlineStr">
         <is>
           <t>CACHE_PORT</t>
         </is>
       </c>
-      <c r="B17" s="38" t="inlineStr">
+      <c r="B17" s="37" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C17" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D17" s="38" t="inlineStr">
+      <c r="C17" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D17" s="37" t="inlineStr">
         <is>
           <t>6379</t>
         </is>
       </c>
-      <c r="E17" s="38" t="inlineStr">
+      <c r="E17" s="37" t="inlineStr">
         <is>
           <t>Redis cache server port</t>
         </is>
       </c>
-      <c r="F17" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" s="38" t="inlineStr">
+      <c r="F17" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H17" s="38" t="inlineStr">
+      <c r="H17" s="37" t="inlineStr">
         <is>
           <t>1-65535</t>
         </is>
       </c>
-      <c r="I17" s="39" t="inlineStr">
+      <c r="I17" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J17" s="38" t="inlineStr">
+      <c r="J17" s="37" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K17" s="38" t="inlineStr">
+      <c r="K17" s="37" t="inlineStr">
         <is>
           <t>Firewall rules</t>
         </is>
       </c>
-      <c r="L17" s="38" t="inlineStr">
+      <c r="L17" s="37" t="inlineStr">
         <is>
           <t>Redis default port</t>
         </is>
       </c>
-      <c r="M17" s="39" t="inlineStr">
+      <c r="M17" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="40" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>CACHE_PASSWORD</t>
         </is>
       </c>
-      <c r="B18" s="41" t="inlineStr">
+      <c r="B18" s="40" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C18" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D18" s="41" t="inlineStr">
+      <c r="C18" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D18" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="E18" s="40" t="inlineStr">
         <is>
           <t>Redis authentication password</t>
         </is>
       </c>
-      <c r="F18" s="42" t="inlineStr">
+      <c r="F18" s="41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H18" s="41" t="inlineStr">
+      <c r="H18" s="40" t="inlineStr">
         <is>
           <t>Min 8 characters</t>
         </is>
       </c>
-      <c r="I18" s="42" t="inlineStr">
+      <c r="I18" s="41" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J18" s="41" t="inlineStr">
+      <c r="J18" s="40" t="inlineStr">
         <is>
           <t>Infrastructure</t>
         </is>
       </c>
-      <c r="K18" s="41" t="inlineStr">
+      <c r="K18" s="40" t="inlineStr">
         <is>
           <t>Redis configuration</t>
         </is>
       </c>
-      <c r="L18" s="41" t="inlineStr">
+      <c r="L18" s="40" t="inlineStr">
         <is>
           <t>Optional if Redis AUTH disabled</t>
         </is>
       </c>
-      <c r="M18" s="42" t="inlineStr">
+      <c r="M18" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="37" t="inlineStr">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>CACHE_TTL</t>
         </is>
       </c>
-      <c r="B19" s="38" t="inlineStr">
+      <c r="B19" s="37" t="inlineStr">
         <is>
           <t>Cache</t>
         </is>
       </c>
-      <c r="C19" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D19" s="38" t="inlineStr">
+      <c r="C19" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D19" s="37" t="inlineStr">
         <is>
           <t>3600</t>
         </is>
       </c>
-      <c r="E19" s="38" t="inlineStr">
+      <c r="E19" s="37" t="inlineStr">
         <is>
           <t>Default cache time-to-live in seconds</t>
         </is>
       </c>
-      <c r="F19" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" s="38" t="inlineStr">
+      <c r="F19" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H19" s="38" t="inlineStr">
+      <c r="H19" s="37" t="inlineStr">
         <is>
           <t>60-86400</t>
         </is>
       </c>
-      <c r="I19" s="39" t="inlineStr">
+      <c r="I19" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J19" s="38" t="inlineStr">
+      <c r="J19" s="37" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="K19" s="38" t="inlineStr">
+      <c r="K19" s="37" t="inlineStr">
         <is>
           <t>Cache strategy</t>
         </is>
       </c>
-      <c r="L19" s="38" t="inlineStr">
+      <c r="L19" s="37" t="inlineStr">
         <is>
           <t>Tune based on data patterns</t>
         </is>
       </c>
-      <c r="M19" s="39" t="inlineStr">
+      <c r="M19" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="40" t="inlineStr">
+      <c r="A20" s="39" t="inlineStr">
         <is>
           <t>JWT_SECRET</t>
         </is>
       </c>
-      <c r="B20" s="41" t="inlineStr">
+      <c r="B20" s="40" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C20" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D20" s="41" t="inlineStr">
+      <c r="C20" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D20" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="E20" s="40" t="inlineStr">
         <is>
           <t>Secret key for JWT token signing</t>
         </is>
       </c>
-      <c r="F20" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="F20" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H20" s="41" t="inlineStr">
+      <c r="H20" s="40" t="inlineStr">
         <is>
           <t>Min 32 chars base64</t>
         </is>
       </c>
-      <c r="I20" s="42" t="inlineStr">
+      <c r="I20" s="41" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J20" s="41" t="inlineStr">
+      <c r="J20" s="40" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K20" s="41" t="inlineStr">
+      <c r="K20" s="40" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-      <c r="L20" s="41" t="inlineStr">
+      <c r="L20" s="40" t="inlineStr">
         <is>
           <t>Rotate regularly</t>
         </is>
       </c>
-      <c r="M20" s="42" t="inlineStr">
+      <c r="M20" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="37" t="inlineStr">
+      <c r="A21" s="36" t="inlineStr">
         <is>
           <t>ENCRYPTION_KEY</t>
         </is>
       </c>
-      <c r="B21" s="38" t="inlineStr">
+      <c r="B21" s="37" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C21" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D21" s="38" t="inlineStr">
+      <c r="C21" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D21" s="37" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E21" s="38" t="inlineStr">
+      <c r="E21" s="37" t="inlineStr">
         <is>
           <t>Key for data encryption at rest</t>
         </is>
       </c>
-      <c r="F21" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" s="38" t="inlineStr">
+      <c r="F21" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H21" s="38" t="inlineStr">
+      <c r="H21" s="37" t="inlineStr">
         <is>
           <t>256-bit key base64</t>
         </is>
       </c>
-      <c r="I21" s="39" t="inlineStr">
+      <c r="I21" s="38" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J21" s="38" t="inlineStr">
+      <c r="J21" s="37" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K21" s="38" t="inlineStr">
+      <c r="K21" s="37" t="inlineStr">
         <is>
           <t>Encryption service</t>
         </is>
       </c>
-      <c r="L21" s="38" t="inlineStr">
+      <c r="L21" s="37" t="inlineStr">
         <is>
           <t>Use key management service</t>
         </is>
       </c>
-      <c r="M21" s="39" t="inlineStr">
+      <c r="M21" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="40" t="inlineStr">
+      <c r="A22" s="39" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="B22" s="41" t="inlineStr">
+      <c r="B22" s="40" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C22" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D22" s="41" t="inlineStr">
+      <c r="C22" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D22" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="E22" s="40" t="inlineStr">
         <is>
           <t>API authentication key</t>
         </is>
       </c>
-      <c r="F22" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="F22" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H22" s="41" t="inlineStr">
+      <c r="H22" s="40" t="inlineStr">
         <is>
           <t>UUID or secure random</t>
         </is>
       </c>
-      <c r="I22" s="42" t="inlineStr">
+      <c r="I22" s="41" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J22" s="41" t="inlineStr">
+      <c r="J22" s="40" t="inlineStr">
         <is>
           <t>API Team</t>
         </is>
       </c>
-      <c r="K22" s="41" t="inlineStr">
+      <c r="K22" s="40" t="inlineStr">
         <is>
           <t>External services</t>
         </is>
       </c>
-      <c r="L22" s="41" t="inlineStr">
+      <c r="L22" s="40" t="inlineStr">
         <is>
           <t>Unique per environment</t>
         </is>
       </c>
-      <c r="M22" s="42" t="inlineStr">
+      <c r="M22" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="37" t="inlineStr">
+      <c r="A23" s="36" t="inlineStr">
         <is>
           <t>CORS_ORIGINS</t>
         </is>
       </c>
-      <c r="B23" s="38" t="inlineStr">
+      <c r="B23" s="37" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="C23" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D23" s="38" t="inlineStr">
+      <c r="C23" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D23" s="37" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E23" s="38" t="inlineStr">
+      <c r="E23" s="37" t="inlineStr">
         <is>
           <t>Allowed CORS origins</t>
         </is>
       </c>
-      <c r="F23" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" s="38" t="inlineStr">
+      <c r="F23" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H23" s="38" t="inlineStr">
+      <c r="H23" s="37" t="inlineStr">
         <is>
           <t>Comma-separated URLs</t>
         </is>
       </c>
-      <c r="I23" s="39" t="inlineStr">
+      <c r="I23" s="38" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J23" s="38" t="inlineStr">
+      <c r="J23" s="37" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="K23" s="38" t="inlineStr">
+      <c r="K23" s="37" t="inlineStr">
         <is>
           <t>Frontend domains</t>
         </is>
       </c>
-      <c r="L23" s="38" t="inlineStr">
+      <c r="L23" s="37" t="inlineStr">
         <is>
           <t>Restrict to known domains</t>
         </is>
       </c>
-      <c r="M23" s="39" t="inlineStr">
+      <c r="M23" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="40" t="inlineStr">
+      <c r="A24" s="39" t="inlineStr">
         <is>
           <t>SERVICE_ENDPOINT</t>
         </is>
       </c>
-      <c r="B24" s="41" t="inlineStr">
+      <c r="B24" s="40" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C24" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D24" s="41" t="inlineStr">
+      <c r="C24" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D24" s="40" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="E24" s="40" t="inlineStr">
         <is>
           <t>External service API endpoint</t>
         </is>
       </c>
-      <c r="F24" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="F24" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H24" s="41" t="inlineStr">
+      <c r="H24" s="40" t="inlineStr">
         <is>
           <t>Valid HTTPS URL</t>
         </is>
       </c>
-      <c r="I24" s="42" t="inlineStr">
+      <c r="I24" s="41" t="inlineStr">
         <is>
           <t>Confidential</t>
         </is>
       </c>
-      <c r="J24" s="41" t="inlineStr">
+      <c r="J24" s="40" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K24" s="41" t="inlineStr">
+      <c r="K24" s="40" t="inlineStr">
         <is>
           <t>Service availability</t>
         </is>
       </c>
-      <c r="L24" s="41" t="inlineStr">
+      <c r="L24" s="40" t="inlineStr">
         <is>
           <t>Use load balancer URL</t>
         </is>
       </c>
-      <c r="M24" s="42" t="inlineStr">
+      <c r="M24" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="37" t="inlineStr">
+      <c r="A25" s="36" t="inlineStr">
         <is>
           <t>SERVICE_API_KEY</t>
         </is>
       </c>
-      <c r="B25" s="38" t="inlineStr">
+      <c r="B25" s="37" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C25" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D25" s="38" t="inlineStr">
+      <c r="C25" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D25" s="37" t="inlineStr">
         <is>
           <t>[********]</t>
         </is>
       </c>
-      <c r="E25" s="38" t="inlineStr">
+      <c r="E25" s="37" t="inlineStr">
         <is>
           <t>API key for external service</t>
         </is>
       </c>
-      <c r="F25" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" s="38" t="inlineStr">
+      <c r="F25" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H25" s="38" t="inlineStr">
+      <c r="H25" s="37" t="inlineStr">
         <is>
           <t>Provider-specific format</t>
         </is>
       </c>
-      <c r="I25" s="39" t="inlineStr">
+      <c r="I25" s="38" t="inlineStr">
         <is>
           <t>Secret</t>
         </is>
       </c>
-      <c r="J25" s="38" t="inlineStr">
+      <c r="J25" s="37" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K25" s="38" t="inlineStr">
+      <c r="K25" s="37" t="inlineStr">
         <is>
           <t>Service registration</t>
         </is>
       </c>
-      <c r="L25" s="38" t="inlineStr">
+      <c r="L25" s="37" t="inlineStr">
         <is>
           <t>Obtain from service provider</t>
         </is>
       </c>
-      <c r="M25" s="39" t="inlineStr">
+      <c r="M25" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="40" t="inlineStr">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>SERVICE_TIMEOUT</t>
         </is>
       </c>
-      <c r="B26" s="41" t="inlineStr">
+      <c r="B26" s="40" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="C26" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D26" s="41" t="inlineStr">
+      <c r="C26" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D26" s="40" t="inlineStr">
         <is>
           <t>30000</t>
         </is>
       </c>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="E26" s="40" t="inlineStr">
         <is>
           <t>Service call timeout in milliseconds</t>
         </is>
       </c>
-      <c r="F26" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="F26" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" s="40" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H26" s="41" t="inlineStr">
+      <c r="H26" s="40" t="inlineStr">
         <is>
           <t>1000-300000</t>
         </is>
       </c>
-      <c r="I26" s="42" t="inlineStr">
+      <c r="I26" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J26" s="41" t="inlineStr">
+      <c r="J26" s="40" t="inlineStr">
         <is>
           <t>Integration Team</t>
         </is>
       </c>
-      <c r="K26" s="41" t="inlineStr">
+      <c r="K26" s="40" t="inlineStr">
         <is>
           <t>Network latency</t>
         </is>
       </c>
-      <c r="L26" s="41" t="inlineStr">
+      <c r="L26" s="40" t="inlineStr">
         <is>
           <t>Adjust based on SLA</t>
         </is>
       </c>
-      <c r="M26" s="42" t="inlineStr">
+      <c r="M26" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="27" ht="26" customHeight="1">
-      <c r="A27" s="37" t="inlineStr">
+      <c r="A27" s="36" t="inlineStr">
         <is>
           <t>METRICS_ENABLED</t>
         </is>
       </c>
-      <c r="B27" s="38" t="inlineStr">
+      <c r="B27" s="37" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C27" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D27" s="38" t="inlineStr">
+      <c r="C27" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D27" s="37" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="E27" s="38" t="inlineStr">
+      <c r="E27" s="37" t="inlineStr">
         <is>
           <t>Enable metrics collection</t>
         </is>
       </c>
-      <c r="F27" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" s="38" t="inlineStr">
+      <c r="F27" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" s="37" t="inlineStr">
         <is>
           <t>Boolean</t>
         </is>
       </c>
-      <c r="H27" s="38" t="inlineStr">
+      <c r="H27" s="37" t="inlineStr">
         <is>
           <t>true|false</t>
         </is>
       </c>
-      <c r="I27" s="39" t="inlineStr">
+      <c r="I27" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J27" s="38" t="inlineStr">
+      <c r="J27" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K27" s="38" t="inlineStr">
+      <c r="K27" s="37" t="inlineStr">
         <is>
           <t>Monitoring tools</t>
         </is>
       </c>
-      <c r="L27" s="38" t="inlineStr">
+      <c r="L27" s="37" t="inlineStr">
         <is>
           <t>Always enable for production</t>
         </is>
       </c>
-      <c r="M27" s="39" t="inlineStr">
+      <c r="M27" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="28" ht="26" customHeight="1">
-      <c r="A28" s="40" t="inlineStr">
+      <c r="A28" s="39" t="inlineStr">
         <is>
           <t>HEALTH_CHECK_PATH</t>
         </is>
       </c>
-      <c r="B28" s="41" t="inlineStr">
+      <c r="B28" s="40" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C28" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D28" s="41" t="inlineStr">
+      <c r="C28" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D28" s="40" t="inlineStr">
         <is>
           <t>/health</t>
         </is>
       </c>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="E28" s="40" t="inlineStr">
         <is>
           <t>Health check endpoint path</t>
         </is>
       </c>
-      <c r="F28" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="F28" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H28" s="41" t="inlineStr">
+      <c r="H28" s="40" t="inlineStr">
         <is>
           <t>Valid URL path</t>
         </is>
       </c>
-      <c r="I28" s="42" t="inlineStr">
+      <c r="I28" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J28" s="41" t="inlineStr">
+      <c r="J28" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K28" s="41" t="inlineStr">
+      <c r="K28" s="40" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L28" s="41" t="inlineStr">
+      <c r="L28" s="40" t="inlineStr">
         <is>
           <t>Must return 200 for healthy</t>
         </is>
       </c>
-      <c r="M28" s="42" t="inlineStr">
+      <c r="M28" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="29" ht="26" customHeight="1">
-      <c r="A29" s="37" t="inlineStr">
+      <c r="A29" s="36" t="inlineStr">
         <is>
           <t>PROMETHEUS_PORT</t>
         </is>
       </c>
-      <c r="B29" s="38" t="inlineStr">
+      <c r="B29" s="37" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C29" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D29" s="38" t="inlineStr">
+      <c r="C29" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D29" s="37" t="inlineStr">
         <is>
           <t>9090</t>
         </is>
       </c>
-      <c r="E29" s="38" t="inlineStr">
+      <c r="E29" s="37" t="inlineStr">
         <is>
           <t>Port for Prometheus metrics</t>
         </is>
       </c>
-      <c r="F29" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" s="38" t="inlineStr">
+      <c r="F29" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H29" s="38" t="inlineStr">
+      <c r="H29" s="37" t="inlineStr">
         <is>
           <t>1024-65535</t>
         </is>
       </c>
-      <c r="I29" s="39" t="inlineStr">
+      <c r="I29" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J29" s="38" t="inlineStr">
+      <c r="J29" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K29" s="38" t="inlineStr">
+      <c r="K29" s="37" t="inlineStr">
         <is>
           <t>Monitoring stack</t>
         </is>
       </c>
-      <c r="L29" s="38" t="inlineStr">
+      <c r="L29" s="37" t="inlineStr">
         <is>
           <t>Ensure port availability</t>
         </is>
       </c>
-      <c r="M29" s="39" t="inlineStr">
+      <c r="M29" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="30" ht="26" customHeight="1">
-      <c r="A30" s="40" t="inlineStr">
+      <c r="A30" s="39" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="B30" s="41" t="inlineStr">
+      <c r="B30" s="40" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C30" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D30" s="41" t="inlineStr">
+      <c r="C30" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D30" s="40" t="inlineStr">
         <is>
           <t>10.0.0.0/16</t>
         </is>
       </c>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="E30" s="40" t="inlineStr">
         <is>
           <t>VPC CIDR block</t>
         </is>
       </c>
-      <c r="F30" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="F30" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H30" s="41" t="inlineStr">
+      <c r="H30" s="40" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I30" s="42" t="inlineStr">
+      <c r="I30" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J30" s="41" t="inlineStr">
+      <c r="J30" s="40" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K30" s="41" t="inlineStr">
+      <c r="K30" s="40" t="inlineStr">
         <is>
           <t>IP planning</t>
         </is>
       </c>
-      <c r="L30" s="41" t="inlineStr">
+      <c r="L30" s="40" t="inlineStr">
         <is>
           <t>Plan for future growth</t>
         </is>
       </c>
-      <c r="M30" s="42" t="inlineStr">
+      <c r="M30" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="31" ht="26" customHeight="1">
-      <c r="A31" s="37" t="inlineStr">
+      <c r="A31" s="36" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_1</t>
         </is>
       </c>
-      <c r="B31" s="38" t="inlineStr">
+      <c r="B31" s="37" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C31" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D31" s="38" t="inlineStr">
+      <c r="C31" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D31" s="37" t="inlineStr">
         <is>
           <t>10.0.1.0/24</t>
         </is>
       </c>
-      <c r="E31" s="38" t="inlineStr">
+      <c r="E31" s="37" t="inlineStr">
         <is>
           <t>First public subnet CIDR</t>
         </is>
       </c>
-      <c r="F31" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="38" t="inlineStr">
+      <c r="F31" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H31" s="38" t="inlineStr">
+      <c r="H31" s="37" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I31" s="39" t="inlineStr">
+      <c r="I31" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J31" s="38" t="inlineStr">
+      <c r="J31" s="37" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K31" s="38" t="inlineStr">
+      <c r="K31" s="37" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L31" s="38" t="inlineStr">
+      <c r="L31" s="37" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M31" s="39" t="inlineStr">
+      <c r="M31" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="32" ht="26" customHeight="1">
-      <c r="A32" s="40" t="inlineStr">
+      <c r="A32" s="39" t="inlineStr">
         <is>
           <t>PUBLIC_SUBNET_2</t>
         </is>
       </c>
-      <c r="B32" s="41" t="inlineStr">
+      <c r="B32" s="40" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C32" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D32" s="41" t="inlineStr">
+      <c r="C32" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D32" s="40" t="inlineStr">
         <is>
           <t>10.0.2.0/24</t>
         </is>
       </c>
-      <c r="E32" s="41" t="inlineStr">
+      <c r="E32" s="40" t="inlineStr">
         <is>
           <t>Second public subnet CIDR</t>
         </is>
       </c>
-      <c r="F32" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G32" s="41" t="inlineStr">
+      <c r="F32" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H32" s="41" t="inlineStr">
+      <c r="H32" s="40" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I32" s="42" t="inlineStr">
+      <c r="I32" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J32" s="41" t="inlineStr">
+      <c r="J32" s="40" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K32" s="41" t="inlineStr">
+      <c r="K32" s="40" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L32" s="41" t="inlineStr">
+      <c r="L32" s="40" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M32" s="42" t="inlineStr">
+      <c r="M32" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="33" ht="26" customHeight="1">
-      <c r="A33" s="37" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_1</t>
         </is>
       </c>
-      <c r="B33" s="38" t="inlineStr">
+      <c r="B33" s="37" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C33" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D33" s="38" t="inlineStr">
+      <c r="C33" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D33" s="37" t="inlineStr">
         <is>
           <t>10.0.10.0/24</t>
         </is>
       </c>
-      <c r="E33" s="38" t="inlineStr">
+      <c r="E33" s="37" t="inlineStr">
         <is>
           <t>First private subnet CIDR</t>
         </is>
       </c>
-      <c r="F33" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G33" s="38" t="inlineStr">
+      <c r="F33" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H33" s="38" t="inlineStr">
+      <c r="H33" s="37" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I33" s="39" t="inlineStr">
+      <c r="I33" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J33" s="38" t="inlineStr">
+      <c r="J33" s="37" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K33" s="38" t="inlineStr">
+      <c r="K33" s="37" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L33" s="38" t="inlineStr">
+      <c r="L33" s="37" t="inlineStr">
         <is>
           <t>Must be within VPC CIDR</t>
         </is>
       </c>
-      <c r="M33" s="39" t="inlineStr">
+      <c r="M33" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="34" ht="26" customHeight="1">
-      <c r="A34" s="40" t="inlineStr">
+      <c r="A34" s="39" t="inlineStr">
         <is>
           <t>PRIVATE_SUBNET_2</t>
         </is>
       </c>
-      <c r="B34" s="41" t="inlineStr">
+      <c r="B34" s="40" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C34" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D34" s="41" t="inlineStr">
+      <c r="C34" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D34" s="40" t="inlineStr">
         <is>
           <t>10.0.11.0/24</t>
         </is>
       </c>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="E34" s="40" t="inlineStr">
         <is>
           <t>Second private subnet CIDR</t>
         </is>
       </c>
-      <c r="F34" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="41" t="inlineStr">
+      <c r="F34" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H34" s="41" t="inlineStr">
+      <c r="H34" s="40" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I34" s="42" t="inlineStr">
+      <c r="I34" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J34" s="41" t="inlineStr">
+      <c r="J34" s="40" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K34" s="41" t="inlineStr">
+      <c r="K34" s="40" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L34" s="41" t="inlineStr">
+      <c r="L34" s="40" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M34" s="42" t="inlineStr">
+      <c r="M34" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="35" ht="26" customHeight="1">
-      <c r="A35" s="37" t="inlineStr">
+      <c r="A35" s="36" t="inlineStr">
         <is>
           <t>DB_SUBNET_1</t>
         </is>
       </c>
-      <c r="B35" s="38" t="inlineStr">
+      <c r="B35" s="37" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C35" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D35" s="38" t="inlineStr">
+      <c r="C35" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D35" s="37" t="inlineStr">
         <is>
           <t>10.0.20.0/24</t>
         </is>
       </c>
-      <c r="E35" s="38" t="inlineStr">
+      <c r="E35" s="37" t="inlineStr">
         <is>
           <t>First database subnet CIDR</t>
         </is>
       </c>
-      <c r="F35" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G35" s="38" t="inlineStr">
+      <c r="F35" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G35" s="37" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H35" s="38" t="inlineStr">
+      <c r="H35" s="37" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I35" s="39" t="inlineStr">
+      <c r="I35" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J35" s="38" t="inlineStr">
+      <c r="J35" s="37" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K35" s="38" t="inlineStr">
+      <c r="K35" s="37" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L35" s="38" t="inlineStr">
+      <c r="L35" s="37" t="inlineStr">
         <is>
           <t>Isolated database tier</t>
         </is>
       </c>
-      <c r="M35" s="39" t="inlineStr">
+      <c r="M35" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="36" ht="26" customHeight="1">
-      <c r="A36" s="40" t="inlineStr">
+      <c r="A36" s="39" t="inlineStr">
         <is>
           <t>DB_SUBNET_2</t>
         </is>
       </c>
-      <c r="B36" s="41" t="inlineStr">
+      <c r="B36" s="40" t="inlineStr">
         <is>
           <t>Network</t>
         </is>
       </c>
-      <c r="C36" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D36" s="41" t="inlineStr">
+      <c r="C36" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D36" s="40" t="inlineStr">
         <is>
           <t>10.0.21.0/24</t>
         </is>
       </c>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="E36" s="40" t="inlineStr">
         <is>
           <t>Second database subnet CIDR</t>
         </is>
       </c>
-      <c r="F36" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G36" s="41" t="inlineStr">
+      <c r="F36" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G36" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H36" s="41" t="inlineStr">
+      <c r="H36" s="40" t="inlineStr">
         <is>
           <t>Valid CIDR notation</t>
         </is>
       </c>
-      <c r="I36" s="42" t="inlineStr">
+      <c r="I36" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J36" s="41" t="inlineStr">
+      <c r="J36" s="40" t="inlineStr">
         <is>
           <t>Network Team</t>
         </is>
       </c>
-      <c r="K36" s="41" t="inlineStr">
+      <c r="K36" s="40" t="inlineStr">
         <is>
           <t>VPC_CIDR</t>
         </is>
       </c>
-      <c r="L36" s="41" t="inlineStr">
+      <c r="L36" s="40" t="inlineStr">
         <is>
           <t>Different AZ from subnet 1</t>
         </is>
       </c>
-      <c r="M36" s="42" t="inlineStr">
+      <c r="M36" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="37" ht="26" customHeight="1">
-      <c r="A37" s="37" t="inlineStr">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>BACKUP_RETENTION</t>
         </is>
       </c>
-      <c r="B37" s="38" t="inlineStr">
+      <c r="B37" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C37" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D37" s="38" t="inlineStr">
+      <c r="C37" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D37" s="37" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="E37" s="38" t="inlineStr">
+      <c r="E37" s="37" t="inlineStr">
         <is>
           <t>Backup retention period in days</t>
         </is>
       </c>
-      <c r="F37" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G37" s="38" t="inlineStr">
+      <c r="F37" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G37" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H37" s="38" t="inlineStr">
+      <c r="H37" s="37" t="inlineStr">
         <is>
           <t>7-365</t>
         </is>
       </c>
-      <c r="I37" s="39" t="inlineStr">
+      <c r="I37" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J37" s="38" t="inlineStr">
+      <c r="J37" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K37" s="38" t="inlineStr">
+      <c r="K37" s="37" t="inlineStr">
         <is>
           <t>Backup strategy</t>
         </is>
       </c>
-      <c r="L37" s="38" t="inlineStr">
+      <c r="L37" s="37" t="inlineStr">
         <is>
           <t>Comply with data policies</t>
         </is>
       </c>
-      <c r="M37" s="39" t="inlineStr">
+      <c r="M37" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="38" ht="26" customHeight="1">
-      <c r="A38" s="40" t="inlineStr">
+      <c r="A38" s="39" t="inlineStr">
         <is>
           <t>BACKUP_SCHEDULE</t>
         </is>
       </c>
-      <c r="B38" s="41" t="inlineStr">
+      <c r="B38" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C38" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D38" s="41" t="inlineStr">
+      <c r="C38" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D38" s="40" t="inlineStr">
         <is>
           <t>0 2 * * *</t>
         </is>
       </c>
-      <c r="E38" s="41" t="inlineStr">
+      <c r="E38" s="40" t="inlineStr">
         <is>
           <t>Backup schedule in cron format</t>
         </is>
       </c>
-      <c r="F38" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G38" s="41" t="inlineStr">
+      <c r="F38" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G38" s="40" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="H38" s="41" t="inlineStr">
+      <c r="H38" s="40" t="inlineStr">
         <is>
           <t>Valid cron expression</t>
         </is>
       </c>
-      <c r="I38" s="42" t="inlineStr">
+      <c r="I38" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J38" s="41" t="inlineStr">
+      <c r="J38" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K38" s="41" t="inlineStr">
+      <c r="K38" s="40" t="inlineStr">
         <is>
           <t>Backup service</t>
         </is>
       </c>
-      <c r="L38" s="41" t="inlineStr">
+      <c r="L38" s="40" t="inlineStr">
         <is>
           <t>Daily at 2 AM UTC</t>
         </is>
       </c>
-      <c r="M38" s="42" t="inlineStr">
+      <c r="M38" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="39" ht="26" customHeight="1">
-      <c r="A39" s="37" t="inlineStr">
+      <c r="A39" s="36" t="inlineStr">
         <is>
           <t>LOG_RETENTION</t>
         </is>
       </c>
-      <c r="B39" s="38" t="inlineStr">
+      <c r="B39" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C39" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D39" s="38" t="inlineStr">
+      <c r="C39" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D39" s="37" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="E39" s="38" t="inlineStr">
+      <c r="E39" s="37" t="inlineStr">
         <is>
           <t>Log retention period in days</t>
         </is>
       </c>
-      <c r="F39" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G39" s="38" t="inlineStr">
+      <c r="F39" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H39" s="38" t="inlineStr">
+      <c r="H39" s="37" t="inlineStr">
         <is>
           <t>30-365</t>
         </is>
       </c>
-      <c r="I39" s="39" t="inlineStr">
+      <c r="I39" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J39" s="38" t="inlineStr">
+      <c r="J39" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K39" s="38" t="inlineStr">
+      <c r="K39" s="37" t="inlineStr">
         <is>
           <t>Log management</t>
         </is>
       </c>
-      <c r="L39" s="38" t="inlineStr">
+      <c r="L39" s="37" t="inlineStr">
         <is>
           <t>Balance cost and compliance</t>
         </is>
       </c>
-      <c r="M39" s="39" t="inlineStr">
+      <c r="M39" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="40" ht="26" customHeight="1">
-      <c r="A40" s="40" t="inlineStr">
+      <c r="A40" s="39" t="inlineStr">
         <is>
           <t>SCALING_MIN_INSTANCES</t>
         </is>
       </c>
-      <c r="B40" s="41" t="inlineStr">
+      <c r="B40" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C40" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D40" s="41" t="inlineStr">
+      <c r="C40" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D40" s="40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E40" s="41" t="inlineStr">
+      <c r="E40" s="40" t="inlineStr">
         <is>
           <t>Minimum number of instances</t>
         </is>
       </c>
-      <c r="F40" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G40" s="41" t="inlineStr">
+      <c r="F40" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" s="40" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H40" s="41" t="inlineStr">
+      <c r="H40" s="40" t="inlineStr">
         <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="I40" s="42" t="inlineStr">
+      <c r="I40" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J40" s="41" t="inlineStr">
+      <c r="J40" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K40" s="41" t="inlineStr">
+      <c r="K40" s="40" t="inlineStr">
         <is>
           <t>Load balancer</t>
         </is>
       </c>
-      <c r="L40" s="41" t="inlineStr">
+      <c r="L40" s="40" t="inlineStr">
         <is>
           <t>Ensure high availability</t>
         </is>
       </c>
-      <c r="M40" s="42" t="inlineStr">
+      <c r="M40" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="41" ht="26" customHeight="1">
-      <c r="A41" s="37" t="inlineStr">
+      <c r="A41" s="36" t="inlineStr">
         <is>
           <t>SCALING_MAX_INSTANCES</t>
         </is>
       </c>
-      <c r="B41" s="38" t="inlineStr">
+      <c r="B41" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C41" s="39" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D41" s="38" t="inlineStr">
+      <c r="C41" s="38" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D41" s="37" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E41" s="38" t="inlineStr">
+      <c r="E41" s="37" t="inlineStr">
         <is>
           <t>Maximum number of instances</t>
         </is>
       </c>
-      <c r="F41" s="39" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G41" s="38" t="inlineStr">
+      <c r="F41" s="38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" s="37" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H41" s="38" t="inlineStr">
+      <c r="H41" s="37" t="inlineStr">
         <is>
           <t>5-100</t>
         </is>
       </c>
-      <c r="I41" s="39" t="inlineStr">
+      <c r="I41" s="38" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J41" s="38" t="inlineStr">
+      <c r="J41" s="37" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K41" s="38" t="inlineStr">
+      <c r="K41" s="37" t="inlineStr">
         <is>
           <t>Cost management</t>
         </is>
       </c>
-      <c r="L41" s="38" t="inlineStr">
+      <c r="L41" s="37" t="inlineStr">
         <is>
           <t>Set based on peak load</t>
         </is>
       </c>
-      <c r="M41" s="39" t="inlineStr">
+      <c r="M41" s="38" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
     </row>
     <row r="42" ht="26" customHeight="1">
-      <c r="A42" s="40" t="inlineStr">
+      <c r="A42" s="39" t="inlineStr">
         <is>
           <t>SCALING_TARGET_CPU</t>
         </is>
       </c>
-      <c r="B42" s="41" t="inlineStr">
+      <c r="B42" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="C42" s="42" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D42" s="41" t="inlineStr">
+      <c r="C42" s="41" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="D42" s="40" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E42" s="41" t="inlineStr">
+      <c r="E42" s="40" t="inlineStr">
         <is>
           <t>CPU threshold for auto-scaling</t>
         </is>
       </c>
-      <c r="F42" s="42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G42" s="41" t="inlineStr">
+      <c r="F42" s="41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" s="40" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="H42" s="41" t="inlineStr">
+      <c r="H42" s="40" t="inlineStr">
         <is>
           <t>50-90</t>
         </is>
       </c>
-      <c r="I42" s="42" t="inlineStr">
+      <c r="I42" s="41" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="J42" s="41" t="inlineStr">
+      <c r="J42" s="40" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="K42" s="41" t="inlineStr">
+      <c r="K42" s="40" t="inlineStr">
         <is>
           <t>Performance monitoring</t>
         </is>
       </c>
-      <c r="L42" s="41" t="inlineStr">
+      <c r="L42" s="40" t="inlineStr">
         <is>
           <t>Tune based on application behavior</t>
         </is>
       </c>
-      <c r="M42" s="42" t="inlineStr">
+      <c r="M42" s="41" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/configuration.xlsx
@@ -864,7 +864,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -892,12 +892,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -952,9 +952,9 @@
           <t>alarm_thresholds.alb_4xx_count</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -1010,9 +1010,9 @@
           <t>alarm_thresholds.alb_5xx_count</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -1068,9 +1068,9 @@
           <t>alarm_thresholds.alb_response_time_seconds</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -1126,9 +1126,9 @@
           <t>alarm_thresholds.alb_unhealthy_hosts</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -1184,9 +1184,9 @@
           <t>alarm_thresholds.cache_connections</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>500</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -1242,9 +1242,9 @@
           <t>alarm_thresholds.cache_cpu_percent</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -1300,9 +1300,9 @@
           <t>alarm_thresholds.cache_evictions</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>1000</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -1358,9 +1358,9 @@
           <t>alarm_thresholds.cache_memory_percent</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -1416,9 +1416,9 @@
           <t>alarm_thresholds.db_connections</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -1474,9 +1474,9 @@
           <t>alarm_thresholds.db_cpu_percent</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -1532,9 +1532,9 @@
           <t>alarm_thresholds.db_read_latency_seconds</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -1590,9 +1590,9 @@
           <t>alarm_thresholds.db_storage_bytes</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>10737418240</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -1648,9 +1648,9 @@
           <t>alarm_thresholds.db_write_latency_seconds</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -1706,9 +1706,9 @@
           <t>alarm_thresholds.ec2_cpu_percent</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -1764,9 +1764,9 @@
           <t>alarm_thresholds.ec2_disk_percent</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -1822,9 +1822,9 @@
           <t>alarm_thresholds.ec2_memory_percent</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>85</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
@@ -1880,14 +1880,14 @@
           <t>monitoring.alarm_evaluation_periods</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="39" t="inlineStr">
@@ -1938,9 +1938,9 @@
           <t>monitoring.alarm_period_seconds</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -1996,9 +1996,9 @@
           <t>monitoring.alarm_treat_missing_data</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>missing</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
@@ -2054,9 +2054,9 @@
           <t>monitoring.dashboard_widget_height</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -2112,9 +2112,9 @@
           <t>monitoring.dashboard_widget_width</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -2170,9 +2170,9 @@
           <t>monitoring.enable_container_insights</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -2228,9 +2228,9 @@
           <t>monitoring.enable_dashboard</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -2286,9 +2286,9 @@
           <t>monitoring.enable_xray_tracing</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
@@ -2344,14 +2344,14 @@
           <t>monitoring.log_retention_days</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D27" s="39" t="inlineStr">
@@ -2402,9 +2402,9 @@
           <t>monitoring.xray_sampling</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>{ priority = 1000, reservoir_size = 1, fixed_rate = 0.05, url_path = "*", http_method = "*", service_type = "*", host = "*" }</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -2479,7 +2479,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -2567,9 +2567,9 @@
           <t>backup.backup_tag_key</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -2625,9 +2625,9 @@
           <t>backup.backup_tag_value</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -2683,9 +2683,9 @@
           <t>backup.cold_storage_days</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -2741,14 +2741,14 @@
           <t>backup.daily_retention</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" s="37" t="inlineStr">
@@ -2799,9 +2799,9 @@
           <t>backup.daily_schedule</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>cron(0 5 * * ? *)</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -2857,9 +2857,9 @@
           <t>backup.dr_retention</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -2915,9 +2915,9 @@
           <t>backup.enable_continuous</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -2973,9 +2973,9 @@
           <t>backup.enable_cross_region</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -3031,9 +3031,9 @@
           <t>backup.enable_monthly</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -3089,9 +3089,9 @@
           <t>backup.enable_s3_backup</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -3147,9 +3147,9 @@
           <t>backup.enable_tag_selection</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -3205,9 +3205,9 @@
           <t>backup.enable_vault_lock</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -3263,9 +3263,9 @@
           <t>backup.enable_vault_policy</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -3321,9 +3321,9 @@
           <t>backup.enable_weekly</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -3379,9 +3379,9 @@
           <t>backup.enable_windows_vss</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -3437,14 +3437,14 @@
           <t>backup.enabled</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D18" s="37" t="inlineStr">
@@ -3495,14 +3495,14 @@
           <t>backup.monthly_retention</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>365</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D19" s="39" t="inlineStr">
@@ -3553,9 +3553,9 @@
           <t>backup.monthly_schedule</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>cron(0 5 1 * ? *)</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -3611,9 +3611,9 @@
           <t>backup.notification_events</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>["BACKUP_JOB_STARTED", "BACKUP_JOB_COMPLETED", "BACKUP_JOB_FAILED", "RESTORE_JOB_STARTED", "RESTORE_JOB_COMPLETED", "RESTORE_JOB_FAILED"]</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
@@ -3669,9 +3669,9 @@
           <t>backup.resource_arns</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -3727,9 +3727,9 @@
           <t>backup.vault_lock_changeable_days</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -3785,9 +3785,9 @@
           <t>backup.vault_lock_max_retention</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>365</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -3843,9 +3843,9 @@
           <t>backup.vault_lock_min_retention</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -3901,14 +3901,14 @@
           <t>backup.weekly_retention</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D26" s="37" t="inlineStr">
@@ -3959,9 +3959,9 @@
           <t>backup.weekly_schedule</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>cron(0 5 ? * SUN *)</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -4017,9 +4017,9 @@
           <t>budget.action_approval</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -4075,9 +4075,9 @@
           <t>budget.action_threshold</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -4133,9 +4133,9 @@
           <t>budget.alert_emails</t>
         </is>
       </c>
-      <c r="B30" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr">
@@ -4191,9 +4191,9 @@
           <t>budget.alert_thresholds</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>[50, 80, 100]</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -4249,9 +4249,9 @@
           <t>budget.budget_currency</t>
         </is>
       </c>
-      <c r="B32" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B32" s="37" t="inlineStr">
+        <is>
+          <t>USD</t>
         </is>
       </c>
       <c r="C32" s="37" t="inlineStr">
@@ -4307,9 +4307,9 @@
           <t>budget.budget_time_unit</t>
         </is>
       </c>
-      <c r="B33" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>MONTHLY</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -4365,9 +4365,9 @@
           <t>budget.data_transfer_budget_amount</t>
         </is>
       </c>
-      <c r="B34" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B34" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" s="37" t="inlineStr">
@@ -4423,9 +4423,9 @@
           <t>budget.ec2_budget_amount</t>
         </is>
       </c>
-      <c r="B35" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -4481,9 +4481,9 @@
           <t>budget.ec2_instances_to_stop</t>
         </is>
       </c>
-      <c r="B36" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B36" s="37" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
       <c r="C36" s="37" t="inlineStr">
@@ -4539,9 +4539,9 @@
           <t>budget.ec2_usage_hours_limit</t>
         </is>
       </c>
-      <c r="B37" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B37" s="39" t="inlineStr">
+        <is>
+          <t>1000</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -4597,9 +4597,9 @@
           <t>budget.enable_actions</t>
         </is>
       </c>
-      <c r="B38" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B38" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C38" s="37" t="inlineStr">
@@ -4655,9 +4655,9 @@
           <t>budget.enable_cost_budget</t>
         </is>
       </c>
-      <c r="B39" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B39" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
@@ -4713,9 +4713,9 @@
           <t>budget.enable_forecast_alert</t>
         </is>
       </c>
-      <c r="B40" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B40" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C40" s="37" t="inlineStr">
@@ -4771,9 +4771,9 @@
           <t>budget.enable_service_budgets</t>
         </is>
       </c>
-      <c r="B41" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B41" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C41" s="39" t="inlineStr">
@@ -4829,9 +4829,9 @@
           <t>budget.enable_usage_budget</t>
         </is>
       </c>
-      <c r="B42" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B42" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C42" s="37" t="inlineStr">
@@ -4887,14 +4887,14 @@
           <t>budget.enabled</t>
         </is>
       </c>
-      <c r="B43" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B43" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C43" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D43" s="39" t="inlineStr">
@@ -4945,9 +4945,9 @@
           <t>budget.forecast_threshold</t>
         </is>
       </c>
-      <c r="B44" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B44" s="37" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="C44" s="37" t="inlineStr">
@@ -5003,9 +5003,9 @@
           <t>budget.monthly_amount</t>
         </is>
       </c>
-      <c r="B45" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B45" s="39" t="inlineStr">
+        <is>
+          <t>1000</t>
         </is>
       </c>
       <c r="C45" s="39" t="inlineStr">
@@ -5061,9 +5061,9 @@
           <t>budget.notification_comparison</t>
         </is>
       </c>
-      <c r="B46" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B46" s="37" t="inlineStr">
+        <is>
+          <t>GREATER_THAN</t>
         </is>
       </c>
       <c r="C46" s="37" t="inlineStr">
@@ -5119,9 +5119,9 @@
           <t>budget.notification_threshold_type</t>
         </is>
       </c>
-      <c r="B47" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B47" s="39" t="inlineStr">
+        <is>
+          <t>PERCENTAGE</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -5177,9 +5177,9 @@
           <t>budget.notification_type</t>
         </is>
       </c>
-      <c r="B48" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B48" s="37" t="inlineStr">
+        <is>
+          <t>ACTUAL</t>
         </is>
       </c>
       <c r="C48" s="37" t="inlineStr">
@@ -5235,9 +5235,9 @@
           <t>budget.rds_budget_amount</t>
         </is>
       </c>
-      <c r="B49" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B49" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" s="39" t="inlineStr">
@@ -5293,9 +5293,9 @@
           <t>budget.service_alert_threshold</t>
         </is>
       </c>
-      <c r="B50" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B50" s="37" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C50" s="37" t="inlineStr">
@@ -5351,9 +5351,9 @@
           <t>config_rules.delivery_frequency</t>
         </is>
       </c>
-      <c r="B51" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B51" s="39" t="inlineStr">
+        <is>
+          <t>TwentyFour_Hours</t>
         </is>
       </c>
       <c r="C51" s="39" t="inlineStr">
@@ -5409,9 +5409,9 @@
           <t>config_rules.enable_cost_rules</t>
         </is>
       </c>
-      <c r="B52" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B52" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C52" s="37" t="inlineStr">
@@ -5467,9 +5467,9 @@
           <t>config_rules.enable_operational_rules</t>
         </is>
       </c>
-      <c r="B53" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B53" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C53" s="39" t="inlineStr">
@@ -5525,9 +5525,9 @@
           <t>config_rules.enable_recorder</t>
         </is>
       </c>
-      <c r="B54" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B54" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C54" s="37" t="inlineStr">
@@ -5583,9 +5583,9 @@
           <t>config_rules.enable_reliability_rules</t>
         </is>
       </c>
-      <c r="B55" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B55" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C55" s="39" t="inlineStr">
@@ -5641,9 +5641,9 @@
           <t>config_rules.enable_security_rules</t>
         </is>
       </c>
-      <c r="B56" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B56" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C56" s="37" t="inlineStr">
@@ -5699,14 +5699,14 @@
           <t>config_rules.enabled</t>
         </is>
       </c>
-      <c r="B57" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B57" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C57" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D57" s="39" t="inlineStr">
@@ -5757,9 +5757,9 @@
           <t>config_rules.excluded_resource_types</t>
         </is>
       </c>
-      <c r="B58" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B58" s="37" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
       <c r="C58" s="37" t="inlineStr">
@@ -5815,9 +5815,9 @@
           <t>config_rules.include_global_resources</t>
         </is>
       </c>
-      <c r="B59" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B59" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C59" s="39" t="inlineStr">
@@ -5873,9 +5873,9 @@
           <t>config_rules.min_backup_retention_days</t>
         </is>
       </c>
-      <c r="B60" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B60" s="37" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C60" s="37" t="inlineStr">
@@ -5931,9 +5931,9 @@
           <t>config_rules.record_all_resources</t>
         </is>
       </c>
-      <c r="B61" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B61" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C61" s="39" t="inlineStr">
@@ -5989,9 +5989,9 @@
           <t>config_rules.retention_days</t>
         </is>
       </c>
-      <c r="B62" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B62" s="37" t="inlineStr">
+        <is>
+          <t>365</t>
         </is>
       </c>
       <c r="C62" s="37" t="inlineStr">
@@ -6047,9 +6047,9 @@
           <t>guardduty_enhanced.enable_eks_protection</t>
         </is>
       </c>
-      <c r="B63" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B63" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C63" s="39" t="inlineStr">
@@ -6105,9 +6105,9 @@
           <t>guardduty_enhanced.enable_malware_protection</t>
         </is>
       </c>
-      <c r="B64" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B64" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C64" s="37" t="inlineStr">
@@ -6163,9 +6163,9 @@
           <t>guardduty_enhanced.enable_s3_export</t>
         </is>
       </c>
-      <c r="B65" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B65" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C65" s="39" t="inlineStr">
@@ -6221,9 +6221,9 @@
           <t>guardduty_enhanced.enabled</t>
         </is>
       </c>
-      <c r="B66" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B66" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C66" s="37" t="inlineStr">
@@ -6279,9 +6279,9 @@
           <t>guardduty_enhanced.findings_retention_days</t>
         </is>
       </c>
-      <c r="B67" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B67" s="39" t="inlineStr">
+        <is>
+          <t>365</t>
         </is>
       </c>
       <c r="C67" s="39" t="inlineStr">
@@ -6337,9 +6337,9 @@
           <t>guardduty_enhanced.severity_threshold</t>
         </is>
       </c>
-      <c r="B68" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B68" s="37" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C68" s="37" t="inlineStr">
@@ -6415,7 +6415,7 @@
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="45" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -6477,12 +6477,12 @@
       </c>
       <c r="C4" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="D4" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="E4" s="36" t="inlineStr">
@@ -6541,7 +6541,7 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <f>IF('Project'!B3="","",'Project'!B3)</f>
         <v/>
       </c>
@@ -6596,7 +6596,7 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <f>IF('Project'!B4="","",'Project'!B4)</f>
         <v/>
       </c>
@@ -6651,7 +6651,7 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f>IF('Project'!B5="","",'Project'!B5)</f>
         <v/>
       </c>
@@ -6706,7 +6706,7 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <f>IF('Project'!B6="","",'Project'!B6)</f>
         <v/>
       </c>
@@ -6761,7 +6761,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <f>IF('Networking'!B3="","",'Networking'!B3)</f>
         <v/>
       </c>
@@ -6816,7 +6816,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <f>IF('Networking'!B4="","",'Networking'!B4)</f>
         <v/>
       </c>
@@ -6871,7 +6871,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <f>IF('Networking'!B5="","",'Networking'!B5)</f>
         <v/>
       </c>
@@ -6926,7 +6926,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <f>IF('Networking'!B6="","",'Networking'!B6)</f>
         <v/>
       </c>
@@ -6981,7 +6981,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <f>IF('Networking'!B7="","",'Networking'!B7)</f>
         <v/>
       </c>
@@ -7036,7 +7036,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <f>IF('Networking'!B8="","",'Networking'!B8)</f>
         <v/>
       </c>
@@ -7091,7 +7091,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f>IF('Networking'!B9="","",'Networking'!B9)</f>
         <v/>
       </c>
@@ -7146,7 +7146,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <f>IF('Networking'!B10="","",'Networking'!B10)</f>
         <v/>
       </c>
@@ -7201,7 +7201,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <f>IF('Networking'!B11="","",'Networking'!B11)</f>
         <v/>
       </c>
@@ -7256,7 +7256,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <f>IF('Networking'!B12="","",'Networking'!B12)</f>
         <v/>
       </c>
@@ -7311,7 +7311,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <f>IF('Networking'!B13="","",'Networking'!B13)</f>
         <v/>
       </c>
@@ -7366,7 +7366,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <f>IF('Networking'!B14="","",'Networking'!B14)</f>
         <v/>
       </c>
@@ -7421,7 +7421,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <f>IF('Networking'!B15="","",'Networking'!B15)</f>
         <v/>
       </c>
@@ -7476,7 +7476,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <f>IF('Networking'!B16="","",'Networking'!B16)</f>
         <v/>
       </c>
@@ -7531,7 +7531,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <f>IF('Networking'!B17="","",'Networking'!B17)</f>
         <v/>
       </c>
@@ -7586,7 +7586,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <f>IF('Networking'!B18="","",'Networking'!B18)</f>
         <v/>
       </c>
@@ -7641,7 +7641,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <f>IF('Networking'!B19="","",'Networking'!B19)</f>
         <v/>
       </c>
@@ -7696,7 +7696,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <f>IF('Networking'!B20="","",'Networking'!B20)</f>
         <v/>
       </c>
@@ -7751,7 +7751,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <f>IF('Networking'!B21="","",'Networking'!B21)</f>
         <v/>
       </c>
@@ -7806,7 +7806,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <f>IF('Networking'!B22="","",'Networking'!B22)</f>
         <v/>
       </c>
@@ -7861,7 +7861,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <f>IF('Networking'!B23="","",'Networking'!B23)</f>
         <v/>
       </c>
@@ -7916,7 +7916,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="39">
         <f>IF('Networking'!B24="","",'Networking'!B24)</f>
         <v/>
       </c>
@@ -7971,7 +7971,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="37">
         <f>IF('Networking'!B25="","",'Networking'!B25)</f>
         <v/>
       </c>
@@ -8026,7 +8026,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="39">
         <f>IF('Networking'!B26="","",'Networking'!B26)</f>
         <v/>
       </c>
@@ -8081,7 +8081,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <f>IF('Networking'!B27="","",'Networking'!B27)</f>
         <v/>
       </c>
@@ -8136,7 +8136,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="39">
         <f>IF('Networking'!B28="","",'Networking'!B28)</f>
         <v/>
       </c>
@@ -8191,7 +8191,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <f>IF('Networking'!B29="","",'Networking'!B29)</f>
         <v/>
       </c>
@@ -8246,7 +8246,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="39">
         <f>IF('Networking'!B30="","",'Networking'!B30)</f>
         <v/>
       </c>
@@ -8301,7 +8301,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <f>IF('Networking'!B31="","",'Networking'!B31)</f>
         <v/>
       </c>
@@ -8356,7 +8356,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="39">
         <f>IF('Networking'!B32="","",'Networking'!B32)</f>
         <v/>
       </c>
@@ -8411,7 +8411,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <f>IF('Networking'!B33="","",'Networking'!B33)</f>
         <v/>
       </c>
@@ -8466,7 +8466,7 @@
           <t>Networking</t>
         </is>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="39">
         <f>IF('Networking'!B34="","",'Networking'!B34)</f>
         <v/>
       </c>
@@ -8521,7 +8521,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <f>IF('Security'!B3="","",'Security'!B3)</f>
         <v/>
       </c>
@@ -8576,7 +8576,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="39">
         <f>IF('Security'!B4="","",'Security'!B4)</f>
         <v/>
       </c>
@@ -8631,7 +8631,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <f>IF('Security'!B5="","",'Security'!B5)</f>
         <v/>
       </c>
@@ -8686,7 +8686,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="39">
         <f>IF('Security'!B6="","",'Security'!B6)</f>
         <v/>
       </c>
@@ -8741,7 +8741,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="37">
         <f>IF('Security'!B7="","",'Security'!B7)</f>
         <v/>
       </c>
@@ -8796,7 +8796,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="39">
         <f>IF('Security'!B8="","",'Security'!B8)</f>
         <v/>
       </c>
@@ -8851,7 +8851,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <f>IF('Security'!B9="","",'Security'!B9)</f>
         <v/>
       </c>
@@ -8906,7 +8906,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="39">
         <f>IF('Security'!B10="","",'Security'!B10)</f>
         <v/>
       </c>
@@ -8961,7 +8961,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <f>IF('Security'!B11="","",'Security'!B11)</f>
         <v/>
       </c>
@@ -9016,7 +9016,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="39">
         <f>IF('Security'!B12="","",'Security'!B12)</f>
         <v/>
       </c>
@@ -9071,7 +9071,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <f>IF('Security'!B13="","",'Security'!B13)</f>
         <v/>
       </c>
@@ -9126,7 +9126,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <f>IF('Security'!B14="","",'Security'!B14)</f>
         <v/>
       </c>
@@ -9181,7 +9181,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <f>IF('Security'!B15="","",'Security'!B15)</f>
         <v/>
       </c>
@@ -9236,7 +9236,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <f>IF('Security'!B16="","",'Security'!B16)</f>
         <v/>
       </c>
@@ -9291,7 +9291,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <f>IF('Security'!B17="","",'Security'!B17)</f>
         <v/>
       </c>
@@ -9346,7 +9346,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <f>IF('Security'!B18="","",'Security'!B18)</f>
         <v/>
       </c>
@@ -9401,7 +9401,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="37">
         <f>IF('Security'!B19="","",'Security'!B19)</f>
         <v/>
       </c>
@@ -9456,7 +9456,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="39">
         <f>IF('Security'!B20="","",'Security'!B20)</f>
         <v/>
       </c>
@@ -9511,7 +9511,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="37">
         <f>IF('Security'!B21="","",'Security'!B21)</f>
         <v/>
       </c>
@@ -9566,7 +9566,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="39">
         <f>IF('Security'!B22="","",'Security'!B22)</f>
         <v/>
       </c>
@@ -9621,7 +9621,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="37">
         <f>IF('Security'!B23="","",'Security'!B23)</f>
         <v/>
       </c>
@@ -9676,7 +9676,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="39">
         <f>IF('Security'!B24="","",'Security'!B24)</f>
         <v/>
       </c>
@@ -9731,7 +9731,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="37">
         <f>IF('Security'!B25="","",'Security'!B25)</f>
         <v/>
       </c>
@@ -9786,7 +9786,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="39">
         <f>IF('Security'!B26="","",'Security'!B26)</f>
         <v/>
       </c>
@@ -9841,7 +9841,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="37">
         <f>IF('Security'!B27="","",'Security'!B27)</f>
         <v/>
       </c>
@@ -9896,7 +9896,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="39">
         <f>IF('Security'!B28="","",'Security'!B28)</f>
         <v/>
       </c>
@@ -9951,7 +9951,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="37">
         <f>IF('Security'!B29="","",'Security'!B29)</f>
         <v/>
       </c>
@@ -10006,7 +10006,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="39">
         <f>IF('Security'!B30="","",'Security'!B30)</f>
         <v/>
       </c>
@@ -10061,7 +10061,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="37">
         <f>IF('Security'!B31="","",'Security'!B31)</f>
         <v/>
       </c>
@@ -10116,7 +10116,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="39">
         <f>IF('Security'!B32="","",'Security'!B32)</f>
         <v/>
       </c>
@@ -10171,7 +10171,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="37">
         <f>IF('Security'!B33="","",'Security'!B33)</f>
         <v/>
       </c>
@@ -10226,7 +10226,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="39">
         <f>IF('Security'!B34="","",'Security'!B34)</f>
         <v/>
       </c>
@@ -10281,7 +10281,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="37">
         <f>IF('Security'!B35="","",'Security'!B35)</f>
         <v/>
       </c>
@@ -10336,7 +10336,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="39">
         <f>IF('Security'!B36="","",'Security'!B36)</f>
         <v/>
       </c>
@@ -10391,7 +10391,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="37">
         <f>IF('Security'!B37="","",'Security'!B37)</f>
         <v/>
       </c>
@@ -10446,7 +10446,7 @@
           <t>Security</t>
         </is>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="39">
         <f>IF('Security'!B38="","",'Security'!B38)</f>
         <v/>
       </c>
@@ -10501,7 +10501,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="37">
         <f>IF('Compute'!B3="","",'Compute'!B3)</f>
         <v/>
       </c>
@@ -10556,7 +10556,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="39">
         <f>IF('Compute'!B4="","",'Compute'!B4)</f>
         <v/>
       </c>
@@ -10611,7 +10611,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="37">
         <f>IF('Compute'!B5="","",'Compute'!B5)</f>
         <v/>
       </c>
@@ -10666,7 +10666,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="39">
         <f>IF('Compute'!B6="","",'Compute'!B6)</f>
         <v/>
       </c>
@@ -10721,7 +10721,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C81" s="38">
+      <c r="C81" s="37">
         <f>IF('Compute'!B7="","",'Compute'!B7)</f>
         <v/>
       </c>
@@ -10776,7 +10776,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="39">
         <f>IF('Compute'!B8="","",'Compute'!B8)</f>
         <v/>
       </c>
@@ -10831,7 +10831,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C83" s="38">
+      <c r="C83" s="37">
         <f>IF('Compute'!B9="","",'Compute'!B9)</f>
         <v/>
       </c>
@@ -10886,7 +10886,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="39">
         <f>IF('Compute'!B10="","",'Compute'!B10)</f>
         <v/>
       </c>
@@ -10941,7 +10941,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C85" s="38">
+      <c r="C85" s="37">
         <f>IF('Compute'!B11="","",'Compute'!B11)</f>
         <v/>
       </c>
@@ -10996,7 +10996,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="39">
         <f>IF('Compute'!B12="","",'Compute'!B12)</f>
         <v/>
       </c>
@@ -11051,7 +11051,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C87" s="38">
+      <c r="C87" s="37">
         <f>IF('Compute'!B13="","",'Compute'!B13)</f>
         <v/>
       </c>
@@ -11106,7 +11106,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="39">
         <f>IF('Compute'!B14="","",'Compute'!B14)</f>
         <v/>
       </c>
@@ -11161,7 +11161,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C89" s="38">
+      <c r="C89" s="37">
         <f>IF('Compute'!B15="","",'Compute'!B15)</f>
         <v/>
       </c>
@@ -11216,7 +11216,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C90" s="40">
+      <c r="C90" s="39">
         <f>IF('Compute'!B16="","",'Compute'!B16)</f>
         <v/>
       </c>
@@ -11271,7 +11271,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C91" s="38">
+      <c r="C91" s="37">
         <f>IF('Compute'!B17="","",'Compute'!B17)</f>
         <v/>
       </c>
@@ -11326,7 +11326,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="39">
         <f>IF('Compute'!B18="","",'Compute'!B18)</f>
         <v/>
       </c>
@@ -11381,7 +11381,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C93" s="38">
+      <c r="C93" s="37">
         <f>IF('Compute'!B19="","",'Compute'!B19)</f>
         <v/>
       </c>
@@ -11436,7 +11436,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="39">
         <f>IF('Compute'!B20="","",'Compute'!B20)</f>
         <v/>
       </c>
@@ -11491,7 +11491,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C95" s="38">
+      <c r="C95" s="37">
         <f>IF('Compute'!B21="","",'Compute'!B21)</f>
         <v/>
       </c>
@@ -11546,7 +11546,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C96" s="40">
+      <c r="C96" s="39">
         <f>IF('Compute'!B22="","",'Compute'!B22)</f>
         <v/>
       </c>
@@ -11601,7 +11601,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C97" s="38">
+      <c r="C97" s="37">
         <f>IF('Compute'!B23="","",'Compute'!B23)</f>
         <v/>
       </c>
@@ -11656,7 +11656,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="39">
         <f>IF('Compute'!B24="","",'Compute'!B24)</f>
         <v/>
       </c>
@@ -11711,7 +11711,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C99" s="38">
+      <c r="C99" s="37">
         <f>IF('Compute'!B25="","",'Compute'!B25)</f>
         <v/>
       </c>
@@ -11766,7 +11766,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C100" s="40">
+      <c r="C100" s="39">
         <f>IF('Compute'!B26="","",'Compute'!B26)</f>
         <v/>
       </c>
@@ -11821,7 +11821,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C101" s="38">
+      <c r="C101" s="37">
         <f>IF('Compute'!B27="","",'Compute'!B27)</f>
         <v/>
       </c>
@@ -11876,7 +11876,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C102" s="40">
+      <c r="C102" s="39">
         <f>IF('Compute'!B28="","",'Compute'!B28)</f>
         <v/>
       </c>
@@ -11931,7 +11931,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C103" s="38">
+      <c r="C103" s="37">
         <f>IF('Compute'!B29="","",'Compute'!B29)</f>
         <v/>
       </c>
@@ -11986,7 +11986,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C104" s="40">
+      <c r="C104" s="39">
         <f>IF('Compute'!B30="","",'Compute'!B30)</f>
         <v/>
       </c>
@@ -12041,7 +12041,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C105" s="38">
+      <c r="C105" s="37">
         <f>IF('Compute'!B31="","",'Compute'!B31)</f>
         <v/>
       </c>
@@ -12096,7 +12096,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C106" s="40">
+      <c r="C106" s="39">
         <f>IF('Compute'!B32="","",'Compute'!B32)</f>
         <v/>
       </c>
@@ -12151,7 +12151,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C107" s="38">
+      <c r="C107" s="37">
         <f>IF('Compute'!B33="","",'Compute'!B33)</f>
         <v/>
       </c>
@@ -12206,7 +12206,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C108" s="40">
+      <c r="C108" s="39">
         <f>IF('Compute'!B34="","",'Compute'!B34)</f>
         <v/>
       </c>
@@ -12261,7 +12261,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C109" s="38">
+      <c r="C109" s="37">
         <f>IF('Compute'!B35="","",'Compute'!B35)</f>
         <v/>
       </c>
@@ -12316,7 +12316,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C110" s="40">
+      <c r="C110" s="39">
         <f>IF('Compute'!B36="","",'Compute'!B36)</f>
         <v/>
       </c>
@@ -12371,7 +12371,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C111" s="38">
+      <c r="C111" s="37">
         <f>IF('Compute'!B37="","",'Compute'!B37)</f>
         <v/>
       </c>
@@ -12426,7 +12426,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C112" s="40">
+      <c r="C112" s="39">
         <f>IF('Compute'!B38="","",'Compute'!B38)</f>
         <v/>
       </c>
@@ -12481,7 +12481,7 @@
           <t>Compute</t>
         </is>
       </c>
-      <c r="C113" s="38">
+      <c r="C113" s="37">
         <f>IF('Compute'!B39="","",'Compute'!B39)</f>
         <v/>
       </c>
@@ -12536,7 +12536,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C114" s="40">
+      <c r="C114" s="39">
         <f>IF('Database'!B3="","",'Database'!B3)</f>
         <v/>
       </c>
@@ -12591,7 +12591,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C115" s="38">
+      <c r="C115" s="37">
         <f>IF('Database'!B4="","",'Database'!B4)</f>
         <v/>
       </c>
@@ -12646,7 +12646,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C116" s="40">
+      <c r="C116" s="39">
         <f>IF('Database'!B5="","",'Database'!B5)</f>
         <v/>
       </c>
@@ -12701,7 +12701,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C117" s="38">
+      <c r="C117" s="37">
         <f>IF('Database'!B6="","",'Database'!B6)</f>
         <v/>
       </c>
@@ -12756,7 +12756,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C118" s="40">
+      <c r="C118" s="39">
         <f>IF('Database'!B7="","",'Database'!B7)</f>
         <v/>
       </c>
@@ -12811,7 +12811,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C119" s="38">
+      <c r="C119" s="37">
         <f>IF('Database'!B8="","",'Database'!B8)</f>
         <v/>
       </c>
@@ -12866,7 +12866,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C120" s="40">
+      <c r="C120" s="39">
         <f>IF('Database'!B9="","",'Database'!B9)</f>
         <v/>
       </c>
@@ -12921,7 +12921,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C121" s="38">
+      <c r="C121" s="37">
         <f>IF('Database'!B10="","",'Database'!B10)</f>
         <v/>
       </c>
@@ -12976,7 +12976,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C122" s="40">
+      <c r="C122" s="39">
         <f>IF('Database'!B11="","",'Database'!B11)</f>
         <v/>
       </c>
@@ -13031,7 +13031,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C123" s="38">
+      <c r="C123" s="37">
         <f>IF('Database'!B12="","",'Database'!B12)</f>
         <v/>
       </c>
@@ -13086,7 +13086,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C124" s="40">
+      <c r="C124" s="39">
         <f>IF('Database'!B13="","",'Database'!B13)</f>
         <v/>
       </c>
@@ -13141,7 +13141,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C125" s="38">
+      <c r="C125" s="37">
         <f>IF('Database'!B14="","",'Database'!B14)</f>
         <v/>
       </c>
@@ -13196,7 +13196,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C126" s="40">
+      <c r="C126" s="39">
         <f>IF('Database'!B15="","",'Database'!B15)</f>
         <v/>
       </c>
@@ -13251,7 +13251,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C127" s="38">
+      <c r="C127" s="37">
         <f>IF('Database'!B16="","",'Database'!B16)</f>
         <v/>
       </c>
@@ -13306,7 +13306,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C128" s="40">
+      <c r="C128" s="39">
         <f>IF('Database'!B17="","",'Database'!B17)</f>
         <v/>
       </c>
@@ -13361,7 +13361,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C129" s="38">
+      <c r="C129" s="37">
         <f>IF('Database'!B18="","",'Database'!B18)</f>
         <v/>
       </c>
@@ -13416,7 +13416,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C130" s="40">
+      <c r="C130" s="39">
         <f>IF('Database'!B19="","",'Database'!B19)</f>
         <v/>
       </c>
@@ -13471,7 +13471,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C131" s="38">
+      <c r="C131" s="37">
         <f>IF('Database'!B20="","",'Database'!B20)</f>
         <v/>
       </c>
@@ -13526,7 +13526,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C132" s="40">
+      <c r="C132" s="39">
         <f>IF('Database'!B21="","",'Database'!B21)</f>
         <v/>
       </c>
@@ -13581,7 +13581,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C133" s="38">
+      <c r="C133" s="37">
         <f>IF('Database'!B22="","",'Database'!B22)</f>
         <v/>
       </c>
@@ -13636,7 +13636,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C134" s="40">
+      <c r="C134" s="39">
         <f>IF('Database'!B23="","",'Database'!B23)</f>
         <v/>
       </c>
@@ -13691,7 +13691,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C135" s="38">
+      <c r="C135" s="37">
         <f>IF('Database'!B24="","",'Database'!B24)</f>
         <v/>
       </c>
@@ -13746,7 +13746,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C136" s="40">
+      <c r="C136" s="39">
         <f>IF('Database'!B25="","",'Database'!B25)</f>
         <v/>
       </c>
@@ -13801,7 +13801,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C137" s="38">
+      <c r="C137" s="37">
         <f>IF('Database'!B26="","",'Database'!B26)</f>
         <v/>
       </c>
@@ -13856,7 +13856,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C138" s="40">
+      <c r="C138" s="39">
         <f>IF('Database'!B27="","",'Database'!B27)</f>
         <v/>
       </c>
@@ -13911,7 +13911,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C139" s="38">
+      <c r="C139" s="37">
         <f>IF('Database'!B28="","",'Database'!B28)</f>
         <v/>
       </c>
@@ -13966,7 +13966,7 @@
           <t>Database</t>
         </is>
       </c>
-      <c r="C140" s="40">
+      <c r="C140" s="39">
         <f>IF('Database'!B29="","",'Database'!B29)</f>
         <v/>
       </c>
@@ -14021,7 +14021,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C141" s="38">
+      <c r="C141" s="37">
         <f>IF('Cache'!B3="","",'Cache'!B3)</f>
         <v/>
       </c>
@@ -14076,7 +14076,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C142" s="40">
+      <c r="C142" s="39">
         <f>IF('Cache'!B4="","",'Cache'!B4)</f>
         <v/>
       </c>
@@ -14131,7 +14131,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C143" s="38">
+      <c r="C143" s="37">
         <f>IF('Cache'!B5="","",'Cache'!B5)</f>
         <v/>
       </c>
@@ -14186,7 +14186,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C144" s="40">
+      <c r="C144" s="39">
         <f>IF('Cache'!B6="","",'Cache'!B6)</f>
         <v/>
       </c>
@@ -14241,7 +14241,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C145" s="38">
+      <c r="C145" s="37">
         <f>IF('Cache'!B7="","",'Cache'!B7)</f>
         <v/>
       </c>
@@ -14296,7 +14296,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C146" s="40">
+      <c r="C146" s="39">
         <f>IF('Cache'!B8="","",'Cache'!B8)</f>
         <v/>
       </c>
@@ -14351,7 +14351,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C147" s="38">
+      <c r="C147" s="37">
         <f>IF('Cache'!B9="","",'Cache'!B9)</f>
         <v/>
       </c>
@@ -14406,7 +14406,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C148" s="40">
+      <c r="C148" s="39">
         <f>IF('Cache'!B10="","",'Cache'!B10)</f>
         <v/>
       </c>
@@ -14461,7 +14461,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C149" s="38">
+      <c r="C149" s="37">
         <f>IF('Cache'!B11="","",'Cache'!B11)</f>
         <v/>
       </c>
@@ -14516,7 +14516,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C150" s="40">
+      <c r="C150" s="39">
         <f>IF('Cache'!B12="","",'Cache'!B12)</f>
         <v/>
       </c>
@@ -14571,7 +14571,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C151" s="38">
+      <c r="C151" s="37">
         <f>IF('Cache'!B13="","",'Cache'!B13)</f>
         <v/>
       </c>
@@ -14626,7 +14626,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C152" s="40">
+      <c r="C152" s="39">
         <f>IF('Cache'!B14="","",'Cache'!B14)</f>
         <v/>
       </c>
@@ -14681,7 +14681,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C153" s="38">
+      <c r="C153" s="37">
         <f>IF('Cache'!B15="","",'Cache'!B15)</f>
         <v/>
       </c>
@@ -14736,7 +14736,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C154" s="40">
+      <c r="C154" s="39">
         <f>IF('Cache'!B16="","",'Cache'!B16)</f>
         <v/>
       </c>
@@ -14791,7 +14791,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C155" s="38">
+      <c r="C155" s="37">
         <f>IF('Cache'!B17="","",'Cache'!B17)</f>
         <v/>
       </c>
@@ -14846,7 +14846,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C156" s="40">
+      <c r="C156" s="39">
         <f>IF('Cache'!B18="","",'Cache'!B18)</f>
         <v/>
       </c>
@@ -14901,7 +14901,7 @@
           <t>Cache</t>
         </is>
       </c>
-      <c r="C157" s="38">
+      <c r="C157" s="37">
         <f>IF('Cache'!B19="","",'Cache'!B19)</f>
         <v/>
       </c>
@@ -14956,7 +14956,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C158" s="40">
+      <c r="C158" s="39">
         <f>IF('Application'!B3="","",'Application'!B3)</f>
         <v/>
       </c>
@@ -15011,7 +15011,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C159" s="38">
+      <c r="C159" s="37">
         <f>IF('Application'!B4="","",'Application'!B4)</f>
         <v/>
       </c>
@@ -15066,7 +15066,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C160" s="40">
+      <c r="C160" s="39">
         <f>IF('Application'!B5="","",'Application'!B5)</f>
         <v/>
       </c>
@@ -15121,7 +15121,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C161" s="38">
+      <c r="C161" s="37">
         <f>IF('Application'!B6="","",'Application'!B6)</f>
         <v/>
       </c>
@@ -15176,7 +15176,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C162" s="40">
+      <c r="C162" s="39">
         <f>IF('Application'!B7="","",'Application'!B7)</f>
         <v/>
       </c>
@@ -15231,7 +15231,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C163" s="38">
+      <c r="C163" s="37">
         <f>IF('Application'!B8="","",'Application'!B8)</f>
         <v/>
       </c>
@@ -15286,7 +15286,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C164" s="40">
+      <c r="C164" s="39">
         <f>IF('Application'!B9="","",'Application'!B9)</f>
         <v/>
       </c>
@@ -15341,7 +15341,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C165" s="38">
+      <c r="C165" s="37">
         <f>IF('Application'!B10="","",'Application'!B10)</f>
         <v/>
       </c>
@@ -15396,7 +15396,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C166" s="40">
+      <c r="C166" s="39">
         <f>IF('Application'!B11="","",'Application'!B11)</f>
         <v/>
       </c>
@@ -15451,7 +15451,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C167" s="38">
+      <c r="C167" s="37">
         <f>IF('Application'!B12="","",'Application'!B12)</f>
         <v/>
       </c>
@@ -15506,7 +15506,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C168" s="40">
+      <c r="C168" s="39">
         <f>IF('Application'!B13="","",'Application'!B13)</f>
         <v/>
       </c>
@@ -15561,7 +15561,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C169" s="38">
+      <c r="C169" s="37">
         <f>IF('Application'!B14="","",'Application'!B14)</f>
         <v/>
       </c>
@@ -15616,7 +15616,7 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="C170" s="40">
+      <c r="C170" s="39">
         <f>IF('Application'!B15="","",'Application'!B15)</f>
         <v/>
       </c>
@@ -15671,7 +15671,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C171" s="38">
+      <c r="C171" s="37">
         <f>IF('Monitoring'!B3="","",'Monitoring'!B3)</f>
         <v/>
       </c>
@@ -15726,7 +15726,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C172" s="40">
+      <c r="C172" s="39">
         <f>IF('Monitoring'!B4="","",'Monitoring'!B4)</f>
         <v/>
       </c>
@@ -15781,7 +15781,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C173" s="38">
+      <c r="C173" s="37">
         <f>IF('Monitoring'!B5="","",'Monitoring'!B5)</f>
         <v/>
       </c>
@@ -15836,7 +15836,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C174" s="40">
+      <c r="C174" s="39">
         <f>IF('Monitoring'!B6="","",'Monitoring'!B6)</f>
         <v/>
       </c>
@@ -15891,7 +15891,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C175" s="38">
+      <c r="C175" s="37">
         <f>IF('Monitoring'!B7="","",'Monitoring'!B7)</f>
         <v/>
       </c>
@@ -15946,7 +15946,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C176" s="40">
+      <c r="C176" s="39">
         <f>IF('Monitoring'!B8="","",'Monitoring'!B8)</f>
         <v/>
       </c>
@@ -16001,7 +16001,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C177" s="38">
+      <c r="C177" s="37">
         <f>IF('Monitoring'!B9="","",'Monitoring'!B9)</f>
         <v/>
       </c>
@@ -16056,7 +16056,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C178" s="40">
+      <c r="C178" s="39">
         <f>IF('Monitoring'!B10="","",'Monitoring'!B10)</f>
         <v/>
       </c>
@@ -16111,7 +16111,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C179" s="38">
+      <c r="C179" s="37">
         <f>IF('Monitoring'!B11="","",'Monitoring'!B11)</f>
         <v/>
       </c>
@@ -16166,7 +16166,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C180" s="40">
+      <c r="C180" s="39">
         <f>IF('Monitoring'!B12="","",'Monitoring'!B12)</f>
         <v/>
       </c>
@@ -16221,7 +16221,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C181" s="38">
+      <c r="C181" s="37">
         <f>IF('Monitoring'!B13="","",'Monitoring'!B13)</f>
         <v/>
       </c>
@@ -16276,7 +16276,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C182" s="40">
+      <c r="C182" s="39">
         <f>IF('Monitoring'!B14="","",'Monitoring'!B14)</f>
         <v/>
       </c>
@@ -16331,7 +16331,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C183" s="38">
+      <c r="C183" s="37">
         <f>IF('Monitoring'!B15="","",'Monitoring'!B15)</f>
         <v/>
       </c>
@@ -16386,7 +16386,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C184" s="40">
+      <c r="C184" s="39">
         <f>IF('Monitoring'!B16="","",'Monitoring'!B16)</f>
         <v/>
       </c>
@@ -16441,7 +16441,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C185" s="38">
+      <c r="C185" s="37">
         <f>IF('Monitoring'!B17="","",'Monitoring'!B17)</f>
         <v/>
       </c>
@@ -16496,7 +16496,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C186" s="40">
+      <c r="C186" s="39">
         <f>IF('Monitoring'!B18="","",'Monitoring'!B18)</f>
         <v/>
       </c>
@@ -16551,7 +16551,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C187" s="38">
+      <c r="C187" s="37">
         <f>IF('Monitoring'!B19="","",'Monitoring'!B19)</f>
         <v/>
       </c>
@@ -16606,7 +16606,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C188" s="40">
+      <c r="C188" s="39">
         <f>IF('Monitoring'!B20="","",'Monitoring'!B20)</f>
         <v/>
       </c>
@@ -16661,7 +16661,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C189" s="38">
+      <c r="C189" s="37">
         <f>IF('Monitoring'!B21="","",'Monitoring'!B21)</f>
         <v/>
       </c>
@@ -16716,7 +16716,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C190" s="40">
+      <c r="C190" s="39">
         <f>IF('Monitoring'!B22="","",'Monitoring'!B22)</f>
         <v/>
       </c>
@@ -16771,7 +16771,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C191" s="38">
+      <c r="C191" s="37">
         <f>IF('Monitoring'!B23="","",'Monitoring'!B23)</f>
         <v/>
       </c>
@@ -16826,7 +16826,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C192" s="40">
+      <c r="C192" s="39">
         <f>IF('Monitoring'!B24="","",'Monitoring'!B24)</f>
         <v/>
       </c>
@@ -16881,7 +16881,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C193" s="38">
+      <c r="C193" s="37">
         <f>IF('Monitoring'!B25="","",'Monitoring'!B25)</f>
         <v/>
       </c>
@@ -16936,7 +16936,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C194" s="40">
+      <c r="C194" s="39">
         <f>IF('Monitoring'!B26="","",'Monitoring'!B26)</f>
         <v/>
       </c>
@@ -16991,7 +16991,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C195" s="38">
+      <c r="C195" s="37">
         <f>IF('Monitoring'!B27="","",'Monitoring'!B27)</f>
         <v/>
       </c>
@@ -17046,7 +17046,7 @@
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="C196" s="40">
+      <c r="C196" s="39">
         <f>IF('Monitoring'!B28="","",'Monitoring'!B28)</f>
         <v/>
       </c>
@@ -17101,7 +17101,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C197" s="38">
+      <c r="C197" s="37">
         <f>IF('Best Practices'!B3="","",'Best Practices'!B3)</f>
         <v/>
       </c>
@@ -17156,7 +17156,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C198" s="40">
+      <c r="C198" s="39">
         <f>IF('Best Practices'!B4="","",'Best Practices'!B4)</f>
         <v/>
       </c>
@@ -17211,7 +17211,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C199" s="38">
+      <c r="C199" s="37">
         <f>IF('Best Practices'!B5="","",'Best Practices'!B5)</f>
         <v/>
       </c>
@@ -17266,7 +17266,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C200" s="40">
+      <c r="C200" s="39">
         <f>IF('Best Practices'!B6="","",'Best Practices'!B6)</f>
         <v/>
       </c>
@@ -17321,7 +17321,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C201" s="38">
+      <c r="C201" s="37">
         <f>IF('Best Practices'!B7="","",'Best Practices'!B7)</f>
         <v/>
       </c>
@@ -17376,7 +17376,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C202" s="40">
+      <c r="C202" s="39">
         <f>IF('Best Practices'!B8="","",'Best Practices'!B8)</f>
         <v/>
       </c>
@@ -17431,7 +17431,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C203" s="38">
+      <c r="C203" s="37">
         <f>IF('Best Practices'!B9="","",'Best Practices'!B9)</f>
         <v/>
       </c>
@@ -17486,7 +17486,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C204" s="40">
+      <c r="C204" s="39">
         <f>IF('Best Practices'!B10="","",'Best Practices'!B10)</f>
         <v/>
       </c>
@@ -17541,7 +17541,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C205" s="38">
+      <c r="C205" s="37">
         <f>IF('Best Practices'!B11="","",'Best Practices'!B11)</f>
         <v/>
       </c>
@@ -17596,7 +17596,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C206" s="40">
+      <c r="C206" s="39">
         <f>IF('Best Practices'!B12="","",'Best Practices'!B12)</f>
         <v/>
       </c>
@@ -17651,7 +17651,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C207" s="38">
+      <c r="C207" s="37">
         <f>IF('Best Practices'!B13="","",'Best Practices'!B13)</f>
         <v/>
       </c>
@@ -17706,7 +17706,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C208" s="40">
+      <c r="C208" s="39">
         <f>IF('Best Practices'!B14="","",'Best Practices'!B14)</f>
         <v/>
       </c>
@@ -17761,7 +17761,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C209" s="38">
+      <c r="C209" s="37">
         <f>IF('Best Practices'!B15="","",'Best Practices'!B15)</f>
         <v/>
       </c>
@@ -17816,7 +17816,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C210" s="40">
+      <c r="C210" s="39">
         <f>IF('Best Practices'!B16="","",'Best Practices'!B16)</f>
         <v/>
       </c>
@@ -17871,7 +17871,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C211" s="38">
+      <c r="C211" s="37">
         <f>IF('Best Practices'!B17="","",'Best Practices'!B17)</f>
         <v/>
       </c>
@@ -17926,7 +17926,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C212" s="40">
+      <c r="C212" s="39">
         <f>IF('Best Practices'!B18="","",'Best Practices'!B18)</f>
         <v/>
       </c>
@@ -17981,7 +17981,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C213" s="38">
+      <c r="C213" s="37">
         <f>IF('Best Practices'!B19="","",'Best Practices'!B19)</f>
         <v/>
       </c>
@@ -18036,7 +18036,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C214" s="40">
+      <c r="C214" s="39">
         <f>IF('Best Practices'!B20="","",'Best Practices'!B20)</f>
         <v/>
       </c>
@@ -18091,7 +18091,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C215" s="38">
+      <c r="C215" s="37">
         <f>IF('Best Practices'!B21="","",'Best Practices'!B21)</f>
         <v/>
       </c>
@@ -18146,7 +18146,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C216" s="40">
+      <c r="C216" s="39">
         <f>IF('Best Practices'!B22="","",'Best Practices'!B22)</f>
         <v/>
       </c>
@@ -18201,7 +18201,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C217" s="38">
+      <c r="C217" s="37">
         <f>IF('Best Practices'!B23="","",'Best Practices'!B23)</f>
         <v/>
       </c>
@@ -18256,7 +18256,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C218" s="40">
+      <c r="C218" s="39">
         <f>IF('Best Practices'!B24="","",'Best Practices'!B24)</f>
         <v/>
       </c>
@@ -18311,7 +18311,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C219" s="38">
+      <c r="C219" s="37">
         <f>IF('Best Practices'!B25="","",'Best Practices'!B25)</f>
         <v/>
       </c>
@@ -18366,7 +18366,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C220" s="40">
+      <c r="C220" s="39">
         <f>IF('Best Practices'!B26="","",'Best Practices'!B26)</f>
         <v/>
       </c>
@@ -18421,7 +18421,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C221" s="38">
+      <c r="C221" s="37">
         <f>IF('Best Practices'!B27="","",'Best Practices'!B27)</f>
         <v/>
       </c>
@@ -18476,7 +18476,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C222" s="40">
+      <c r="C222" s="39">
         <f>IF('Best Practices'!B28="","",'Best Practices'!B28)</f>
         <v/>
       </c>
@@ -18531,7 +18531,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C223" s="38">
+      <c r="C223" s="37">
         <f>IF('Best Practices'!B29="","",'Best Practices'!B29)</f>
         <v/>
       </c>
@@ -18586,7 +18586,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C224" s="40">
+      <c r="C224" s="39">
         <f>IF('Best Practices'!B30="","",'Best Practices'!B30)</f>
         <v/>
       </c>
@@ -18641,7 +18641,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C225" s="38">
+      <c r="C225" s="37">
         <f>IF('Best Practices'!B31="","",'Best Practices'!B31)</f>
         <v/>
       </c>
@@ -18696,7 +18696,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C226" s="40">
+      <c r="C226" s="39">
         <f>IF('Best Practices'!B32="","",'Best Practices'!B32)</f>
         <v/>
       </c>
@@ -18751,7 +18751,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C227" s="38">
+      <c r="C227" s="37">
         <f>IF('Best Practices'!B33="","",'Best Practices'!B33)</f>
         <v/>
       </c>
@@ -18806,7 +18806,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C228" s="40">
+      <c r="C228" s="39">
         <f>IF('Best Practices'!B34="","",'Best Practices'!B34)</f>
         <v/>
       </c>
@@ -18861,7 +18861,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C229" s="38">
+      <c r="C229" s="37">
         <f>IF('Best Practices'!B35="","",'Best Practices'!B35)</f>
         <v/>
       </c>
@@ -18916,7 +18916,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C230" s="40">
+      <c r="C230" s="39">
         <f>IF('Best Practices'!B36="","",'Best Practices'!B36)</f>
         <v/>
       </c>
@@ -18971,7 +18971,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C231" s="38">
+      <c r="C231" s="37">
         <f>IF('Best Practices'!B37="","",'Best Practices'!B37)</f>
         <v/>
       </c>
@@ -19026,7 +19026,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C232" s="40">
+      <c r="C232" s="39">
         <f>IF('Best Practices'!B38="","",'Best Practices'!B38)</f>
         <v/>
       </c>
@@ -19081,7 +19081,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C233" s="38">
+      <c r="C233" s="37">
         <f>IF('Best Practices'!B39="","",'Best Practices'!B39)</f>
         <v/>
       </c>
@@ -19136,7 +19136,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C234" s="40">
+      <c r="C234" s="39">
         <f>IF('Best Practices'!B40="","",'Best Practices'!B40)</f>
         <v/>
       </c>
@@ -19191,7 +19191,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C235" s="38">
+      <c r="C235" s="37">
         <f>IF('Best Practices'!B41="","",'Best Practices'!B41)</f>
         <v/>
       </c>
@@ -19246,7 +19246,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C236" s="40">
+      <c r="C236" s="39">
         <f>IF('Best Practices'!B42="","",'Best Practices'!B42)</f>
         <v/>
       </c>
@@ -19301,7 +19301,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C237" s="38">
+      <c r="C237" s="37">
         <f>IF('Best Practices'!B43="","",'Best Practices'!B43)</f>
         <v/>
       </c>
@@ -19356,7 +19356,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C238" s="40">
+      <c r="C238" s="39">
         <f>IF('Best Practices'!B44="","",'Best Practices'!B44)</f>
         <v/>
       </c>
@@ -19411,7 +19411,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C239" s="38">
+      <c r="C239" s="37">
         <f>IF('Best Practices'!B45="","",'Best Practices'!B45)</f>
         <v/>
       </c>
@@ -19466,7 +19466,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C240" s="40">
+      <c r="C240" s="39">
         <f>IF('Best Practices'!B46="","",'Best Practices'!B46)</f>
         <v/>
       </c>
@@ -19521,7 +19521,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C241" s="38">
+      <c r="C241" s="37">
         <f>IF('Best Practices'!B47="","",'Best Practices'!B47)</f>
         <v/>
       </c>
@@ -19576,7 +19576,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C242" s="40">
+      <c r="C242" s="39">
         <f>IF('Best Practices'!B48="","",'Best Practices'!B48)</f>
         <v/>
       </c>
@@ -19631,7 +19631,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C243" s="38">
+      <c r="C243" s="37">
         <f>IF('Best Practices'!B49="","",'Best Practices'!B49)</f>
         <v/>
       </c>
@@ -19686,7 +19686,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C244" s="40">
+      <c r="C244" s="39">
         <f>IF('Best Practices'!B50="","",'Best Practices'!B50)</f>
         <v/>
       </c>
@@ -19741,7 +19741,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C245" s="38">
+      <c r="C245" s="37">
         <f>IF('Best Practices'!B51="","",'Best Practices'!B51)</f>
         <v/>
       </c>
@@ -19796,7 +19796,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C246" s="40">
+      <c r="C246" s="39">
         <f>IF('Best Practices'!B52="","",'Best Practices'!B52)</f>
         <v/>
       </c>
@@ -19851,7 +19851,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C247" s="38">
+      <c r="C247" s="37">
         <f>IF('Best Practices'!B53="","",'Best Practices'!B53)</f>
         <v/>
       </c>
@@ -19906,7 +19906,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C248" s="40">
+      <c r="C248" s="39">
         <f>IF('Best Practices'!B54="","",'Best Practices'!B54)</f>
         <v/>
       </c>
@@ -19961,7 +19961,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C249" s="38">
+      <c r="C249" s="37">
         <f>IF('Best Practices'!B55="","",'Best Practices'!B55)</f>
         <v/>
       </c>
@@ -20016,7 +20016,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C250" s="40">
+      <c r="C250" s="39">
         <f>IF('Best Practices'!B56="","",'Best Practices'!B56)</f>
         <v/>
       </c>
@@ -20071,7 +20071,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C251" s="38">
+      <c r="C251" s="37">
         <f>IF('Best Practices'!B57="","",'Best Practices'!B57)</f>
         <v/>
       </c>
@@ -20126,7 +20126,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C252" s="40">
+      <c r="C252" s="39">
         <f>IF('Best Practices'!B58="","",'Best Practices'!B58)</f>
         <v/>
       </c>
@@ -20181,7 +20181,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C253" s="38">
+      <c r="C253" s="37">
         <f>IF('Best Practices'!B59="","",'Best Practices'!B59)</f>
         <v/>
       </c>
@@ -20236,7 +20236,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C254" s="40">
+      <c r="C254" s="39">
         <f>IF('Best Practices'!B60="","",'Best Practices'!B60)</f>
         <v/>
       </c>
@@ -20291,7 +20291,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C255" s="38">
+      <c r="C255" s="37">
         <f>IF('Best Practices'!B61="","",'Best Practices'!B61)</f>
         <v/>
       </c>
@@ -20346,7 +20346,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C256" s="40">
+      <c r="C256" s="39">
         <f>IF('Best Practices'!B62="","",'Best Practices'!B62)</f>
         <v/>
       </c>
@@ -20401,7 +20401,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C257" s="38">
+      <c r="C257" s="37">
         <f>IF('Best Practices'!B63="","",'Best Practices'!B63)</f>
         <v/>
       </c>
@@ -20456,7 +20456,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C258" s="40">
+      <c r="C258" s="39">
         <f>IF('Best Practices'!B64="","",'Best Practices'!B64)</f>
         <v/>
       </c>
@@ -20511,7 +20511,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C259" s="38">
+      <c r="C259" s="37">
         <f>IF('Best Practices'!B65="","",'Best Practices'!B65)</f>
         <v/>
       </c>
@@ -20566,7 +20566,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C260" s="40">
+      <c r="C260" s="39">
         <f>IF('Best Practices'!B66="","",'Best Practices'!B66)</f>
         <v/>
       </c>
@@ -20621,7 +20621,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C261" s="38">
+      <c r="C261" s="37">
         <f>IF('Best Practices'!B67="","",'Best Practices'!B67)</f>
         <v/>
       </c>
@@ -20676,7 +20676,7 @@
           <t>Best Practices</t>
         </is>
       </c>
-      <c r="C262" s="40">
+      <c r="C262" s="39">
         <f>IF('Best Practices'!B68="","",'Best Practices'!B68)</f>
         <v/>
       </c>
@@ -20744,7 +20744,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -20772,12 +20772,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -20832,9 +20832,9 @@
           <t>aws.region</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>us-east-1</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -20890,9 +20890,9 @@
           <t>ownership.cost_center</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>CC-00000</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -20948,9 +20948,9 @@
           <t>ownership.owner_email</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -21006,9 +21006,9 @@
           <t>ownership.project_code</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>PRJ-SAMPLE</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -21083,7 +21083,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -21111,12 +21111,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -21171,9 +21171,9 @@
           <t>alb.deregistration_delay</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -21229,9 +21229,9 @@
           <t>alb.drop_invalid_header_fields</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -21287,9 +21287,9 @@
           <t>alb.enable_deletion_protection</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -21345,9 +21345,9 @@
           <t>alb.enabled</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -21403,9 +21403,9 @@
           <t>alb.health_check_interval</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -21461,9 +21461,9 @@
           <t>alb.health_check_matcher</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>200-299</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -21519,9 +21519,9 @@
           <t>alb.health_check_path</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>/health</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -21577,9 +21577,9 @@
           <t>alb.health_check_timeout</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -21635,9 +21635,9 @@
           <t>alb.healthy_threshold</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -21693,9 +21693,9 @@
           <t>alb.idle_timeout_seconds</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -21751,9 +21751,9 @@
           <t>alb.internal</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -21809,9 +21809,9 @@
           <t>alb.redirect_http_to_https</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -21867,9 +21867,9 @@
           <t>alb.redirect_status_code</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>HTTP_301</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -21925,9 +21925,9 @@
           <t>alb.ssl_policy</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>ELBSecurityPolicy-TLS13-1-2-2021-06</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -21983,9 +21983,9 @@
           <t>alb.unhealthy_threshold</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -22041,9 +22041,9 @@
           <t>network.database_subnet_cidrs</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
@@ -22099,9 +22099,9 @@
           <t>network.enable_dns_hostnames</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -22157,9 +22157,9 @@
           <t>network.enable_dns_support</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -22215,9 +22215,9 @@
           <t>network.enable_flow_logs</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
@@ -22273,9 +22273,9 @@
           <t>network.enable_nat_gateway</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -22331,9 +22331,9 @@
           <t>network.flow_log_aggregation_interval</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -22389,9 +22389,9 @@
           <t>network.flow_log_destination_type</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>cloud-watch-logs</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -22447,9 +22447,9 @@
           <t>network.flow_log_retention_days</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -22505,9 +22505,9 @@
           <t>network.flow_log_traffic_type</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>ALL</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
@@ -22563,9 +22563,9 @@
           <t>network.http_port</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -22621,9 +22621,9 @@
           <t>network.https_port</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>443</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -22679,9 +22679,9 @@
           <t>network.map_public_ip_on_launch</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -22737,9 +22737,9 @@
           <t>network.private_subnet_cidrs</t>
         </is>
       </c>
-      <c r="B30" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr">
@@ -22795,9 +22795,9 @@
           <t>network.public_subnet_cidrs</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -22853,9 +22853,9 @@
           <t>network.single_nat_gateway</t>
         </is>
       </c>
-      <c r="B32" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B32" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C32" s="37" t="inlineStr">
@@ -22911,9 +22911,9 @@
           <t>network.ssh_port</t>
         </is>
       </c>
-      <c r="B33" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>22</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -22969,9 +22969,9 @@
           <t>network.vpc_cidr</t>
         </is>
       </c>
-      <c r="B34" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B34" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C34" s="37" t="inlineStr">
@@ -23046,7 +23046,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -23074,12 +23074,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -23134,9 +23134,9 @@
           <t>security.allowed_http_cidrs</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -23192,9 +23192,9 @@
           <t>security.allowed_https_cidrs</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -23250,9 +23250,9 @@
           <t>security.allowed_ssh_cidrs</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -23308,9 +23308,9 @@
           <t>security.cache_port</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>6379</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -23366,9 +23366,9 @@
           <t>security.cloudtrail_enable_log_validation</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -23424,9 +23424,9 @@
           <t>security.cloudtrail_event_read_write_type</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>All</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -23482,9 +23482,9 @@
           <t>security.cloudtrail_include_global_events</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -23540,9 +23540,9 @@
           <t>security.cloudtrail_include_management_events</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -23598,9 +23598,9 @@
           <t>security.cloudtrail_is_multi_region</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -23656,14 +23656,14 @@
           <t>security.cloudtrail_retention_days</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>365</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D12" s="37" t="inlineStr">
@@ -23714,9 +23714,9 @@
           <t>security.db_port</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>5432</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -23772,14 +23772,14 @@
           <t>security.enable_cloudtrail</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D14" s="37" t="inlineStr">
@@ -23830,14 +23830,14 @@
           <t>security.enable_guardduty</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D15" s="39" t="inlineStr">
@@ -23888,9 +23888,9 @@
           <t>security.enable_instance_profile</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -23946,9 +23946,9 @@
           <t>security.enable_key_rotation</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -24004,9 +24004,9 @@
           <t>security.enable_kms_encryption</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
@@ -24062,9 +24062,9 @@
           <t>security.enable_ssh_access</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -24120,9 +24120,9 @@
           <t>security.enable_ssm_access</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -24178,14 +24178,14 @@
           <t>security.enable_waf</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D21" s="39" t="inlineStr">
@@ -24236,9 +24236,9 @@
           <t>security.guardduty_eks_protection</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -24294,9 +24294,9 @@
           <t>security.guardduty_finding_frequency</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>FIFTEEN_MINUTES</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -24352,9 +24352,9 @@
           <t>security.guardduty_malware_protection</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -24410,9 +24410,9 @@
           <t>security.guardduty_s3_protection</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -24468,9 +24468,9 @@
           <t>security.guardduty_severity_threshold</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
@@ -24526,9 +24526,9 @@
           <t>security.kms_deletion_window</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -24584,9 +24584,9 @@
           <t>security.metadata_hop_limit</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -24642,9 +24642,9 @@
           <t>security.require_imdsv2</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -24700,9 +24700,9 @@
           <t>security.s3_block_public_acls</t>
         </is>
       </c>
-      <c r="B30" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr">
@@ -24758,9 +24758,9 @@
           <t>security.s3_block_public_policy</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -24816,9 +24816,9 @@
           <t>security.s3_encryption_algorithm</t>
         </is>
       </c>
-      <c r="B32" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B32" s="37" t="inlineStr">
+        <is>
+          <t>aws:kms</t>
         </is>
       </c>
       <c r="C32" s="37" t="inlineStr">
@@ -24874,9 +24874,9 @@
           <t>security.s3_ignore_public_acls</t>
         </is>
       </c>
-      <c r="B33" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -24932,9 +24932,9 @@
           <t>security.s3_noncurrent_version_days</t>
         </is>
       </c>
-      <c r="B34" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B34" s="37" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C34" s="37" t="inlineStr">
@@ -24990,9 +24990,9 @@
           <t>security.s3_restrict_public_buckets</t>
         </is>
       </c>
-      <c r="B35" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -25048,9 +25048,9 @@
           <t>security.waf_ip_address_version</t>
         </is>
       </c>
-      <c r="B36" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B36" s="37" t="inlineStr">
+        <is>
+          <t>IPV4</t>
         </is>
       </c>
       <c r="C36" s="37" t="inlineStr">
@@ -25106,14 +25106,14 @@
           <t>security.waf_rate_limit</t>
         </is>
       </c>
-      <c r="B37" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B37" s="39" t="inlineStr">
+        <is>
+          <t>2000</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D37" s="39" t="inlineStr">
@@ -25164,9 +25164,9 @@
           <t>security.waf_rule_priorities</t>
         </is>
       </c>
-      <c r="B38" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B38" s="37" t="inlineStr">
+        <is>
+          <t>{ rate_limit = 1, blocked_ip = 2, geo_block = 3, common_rules = 10, sqli = 20, bad_inputs = 30 }</t>
         </is>
       </c>
       <c r="C38" s="37" t="inlineStr">
@@ -25241,7 +25241,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -25269,12 +25269,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -25329,9 +25329,9 @@
           <t>compute.ami_filter_name</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>al2023-ami-*-x86_64</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -25387,9 +25387,9 @@
           <t>compute.ami_owner</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>amazon</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -25445,9 +25445,9 @@
           <t>compute.ami_virtualization</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>hvm</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -25503,9 +25503,9 @@
           <t>compute.asg_desired_capacity</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -25561,9 +25561,9 @@
           <t>compute.asg_max_size</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -25619,9 +25619,9 @@
           <t>compute.asg_min_size</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -25677,9 +25677,9 @@
           <t>compute.associate_public_ip</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -25735,9 +25735,9 @@
           <t>compute.default_cooldown</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -25793,9 +25793,9 @@
           <t>compute.delete_on_termination</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -25851,9 +25851,9 @@
           <t>compute.enable_auto_scaling</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -25909,9 +25909,9 @@
           <t>compute.enable_detailed_monitoring</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -25967,9 +25967,9 @@
           <t>compute.health_check_grace_period</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -26025,9 +26025,9 @@
           <t>compute.health_check_type</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>ELB</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -26083,9 +26083,9 @@
           <t>compute.instance_refresh_min_healthy</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -26141,9 +26141,9 @@
           <t>compute.instance_refresh_strategy</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>Rolling</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
@@ -26199,9 +26199,9 @@
           <t>compute.instance_refresh_warmup</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
@@ -26257,14 +26257,14 @@
           <t>compute.instance_type</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>t3.medium</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>t3.medium</t>
+          <t>t3.small</t>
         </is>
       </c>
       <c r="D19" s="39" t="inlineStr">
@@ -26315,9 +26315,9 @@
           <t>compute.launch_template_version</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>$Latest</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -26373,9 +26373,9 @@
           <t>compute.metadata_hop_limit</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
@@ -26431,9 +26431,9 @@
           <t>compute.metadata_http_endpoint</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>enabled</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -26489,9 +26489,9 @@
           <t>compute.metadata_http_tokens</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -26547,9 +26547,9 @@
           <t>compute.metadata_tags_enabled</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>enabled</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -26605,9 +26605,9 @@
           <t>compute.propagate_tags_at_launch</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -26663,9 +26663,9 @@
           <t>compute.root_volume_device</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>/dev/xvda</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
@@ -26721,9 +26721,9 @@
           <t>compute.root_volume_encrypted</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -26779,9 +26779,9 @@
           <t>compute.root_volume_iops</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>3000</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -26837,9 +26837,9 @@
           <t>compute.root_volume_size</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -26895,9 +26895,9 @@
           <t>compute.root_volume_throughput</t>
         </is>
       </c>
-      <c r="B30" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B30" s="37" t="inlineStr">
+        <is>
+          <t>125</t>
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr">
@@ -26953,9 +26953,9 @@
           <t>compute.root_volume_type</t>
         </is>
       </c>
-      <c r="B31" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>gp3</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -27011,9 +27011,9 @@
           <t>compute.scale_down_adjustment</t>
         </is>
       </c>
-      <c r="B32" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B32" s="37" t="inlineStr">
+        <is>
+          <t>-1</t>
         </is>
       </c>
       <c r="C32" s="37" t="inlineStr">
@@ -27069,9 +27069,9 @@
           <t>compute.scale_down_threshold</t>
         </is>
       </c>
-      <c r="B33" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C33" s="39" t="inlineStr">
@@ -27127,9 +27127,9 @@
           <t>compute.scale_up_adjustment</t>
         </is>
       </c>
-      <c r="B34" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B34" s="37" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" s="37" t="inlineStr">
@@ -27185,9 +27185,9 @@
           <t>compute.scale_up_threshold</t>
         </is>
       </c>
-      <c r="B35" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -27243,9 +27243,9 @@
           <t>compute.scaling_cooldown</t>
         </is>
       </c>
-      <c r="B36" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B36" s="37" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
       <c r="C36" s="37" t="inlineStr">
@@ -27301,9 +27301,9 @@
           <t>compute.suspended_processes</t>
         </is>
       </c>
-      <c r="B37" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B37" s="39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
       <c r="C37" s="39" t="inlineStr">
@@ -27359,9 +27359,9 @@
           <t>compute.termination_policies</t>
         </is>
       </c>
-      <c r="B38" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B38" s="37" t="inlineStr">
+        <is>
+          <t>["Default"]</t>
         </is>
       </c>
       <c r="C38" s="37" t="inlineStr">
@@ -27417,9 +27417,9 @@
           <t>compute.use_latest_ami</t>
         </is>
       </c>
-      <c r="B39" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B39" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C39" s="39" t="inlineStr">
@@ -27494,7 +27494,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -27522,12 +27522,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -27582,14 +27582,14 @@
           <t>database.allocated_storage</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
@@ -27640,9 +27640,9 @@
           <t>database.allow_major_version_upgrade</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -27698,9 +27698,9 @@
           <t>database.auto_minor_version_upgrade</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -27756,14 +27756,14 @@
           <t>database.backup_retention</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" s="37" t="inlineStr">
@@ -27814,9 +27814,9 @@
           <t>database.backup_window</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>03:00-04:00</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -27872,9 +27872,9 @@
           <t>database.copy_tags_to_snapshot</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -27930,14 +27930,14 @@
           <t>database.deletion_protection</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D9" s="39" t="inlineStr">
@@ -27988,9 +27988,9 @@
           <t>database.enabled</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -28046,9 +28046,9 @@
           <t>database.engine</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>postgres</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -28104,9 +28104,9 @@
           <t>database.engine_version</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>15.4</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -28162,14 +28162,14 @@
           <t>database.instance_class</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>db.t3.medium</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>db.t3.medium</t>
+          <t>db.t3.small</t>
         </is>
       </c>
       <c r="D13" s="39" t="inlineStr">
@@ -28220,9 +28220,9 @@
           <t>database.log_exports_mysql</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>["error", "slowquery", "general"]</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -28278,9 +28278,9 @@
           <t>database.log_exports_postgres</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>["postgresql", "upgrade"]</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
@@ -28336,9 +28336,9 @@
           <t>database.maintenance_window</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>sun:04:00-sun:05:00</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -28394,14 +28394,14 @@
           <t>database.max_allocated_storage</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>500</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D17" s="39" t="inlineStr">
@@ -28452,14 +28452,14 @@
           <t>database.multi_az</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D18" s="37" t="inlineStr">
@@ -28510,9 +28510,9 @@
           <t>database.name</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>appdb</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -28568,9 +28568,9 @@
           <t>database.password_secret_name</t>
         </is>
       </c>
-      <c r="B20" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B20" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C20" s="37" t="inlineStr">
@@ -28626,14 +28626,14 @@
           <t>database.performance_insights</t>
         </is>
       </c>
-      <c r="B21" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B21" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D21" s="39" t="inlineStr">
@@ -28684,9 +28684,9 @@
           <t>database.performance_insights_retention</t>
         </is>
       </c>
-      <c r="B22" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B22" s="37" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C22" s="37" t="inlineStr">
@@ -28742,9 +28742,9 @@
           <t>database.publicly_accessible</t>
         </is>
       </c>
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B23" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C23" s="39" t="inlineStr">
@@ -28800,9 +28800,9 @@
           <t>database.skip_final_snapshot</t>
         </is>
       </c>
-      <c r="B24" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B24" s="37" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C24" s="37" t="inlineStr">
@@ -28858,9 +28858,9 @@
           <t>database.storage_encrypted</t>
         </is>
       </c>
-      <c r="B25" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C25" s="39" t="inlineStr">
@@ -28916,14 +28916,14 @@
           <t>database.storage_iops</t>
         </is>
       </c>
-      <c r="B26" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B26" s="37" t="inlineStr">
+        <is>
+          <t>3000</t>
         </is>
       </c>
       <c r="C26" s="37" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="37" t="inlineStr">
@@ -28974,14 +28974,14 @@
           <t>database.storage_throughput</t>
         </is>
       </c>
-      <c r="B27" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B27" s="39" t="inlineStr">
+        <is>
+          <t>125</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" s="39" t="inlineStr">
@@ -29032,9 +29032,9 @@
           <t>database.storage_type</t>
         </is>
       </c>
-      <c r="B28" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>gp3</t>
         </is>
       </c>
       <c r="C28" s="37" t="inlineStr">
@@ -29090,9 +29090,9 @@
           <t>database.username</t>
         </is>
       </c>
-      <c r="B29" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B29" s="39" t="inlineStr">
+        <is>
+          <t>dbadmin</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -29167,7 +29167,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -29195,12 +29195,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -29255,9 +29255,9 @@
           <t>cache.at_rest_encryption</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
@@ -29313,9 +29313,9 @@
           <t>cache.auth_token_param_name</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>[********]</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -29371,9 +29371,9 @@
           <t>cache.auto_minor_version_upgrade</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
@@ -29429,14 +29429,14 @@
           <t>cache.automatic_failover</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="D6" s="37" t="inlineStr">
@@ -29487,9 +29487,9 @@
           <t>cache.cluster_mode_enabled</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -29545,9 +29545,9 @@
           <t>cache.cluster_mode_replicas</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -29603,9 +29603,9 @@
           <t>cache.cluster_mode_shards</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -29661,9 +29661,9 @@
           <t>cache.enabled</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -29719,9 +29719,9 @@
           <t>cache.engine</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>redis</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -29777,9 +29777,9 @@
           <t>cache.engine_version</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -29835,9 +29835,9 @@
           <t>cache.maintenance_window</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>sun:06:00-sun:07:00</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -29893,14 +29893,14 @@
           <t>cache.node_type</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>cache.r6g.large</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
         <is>
-          <t>cache.r6g.large</t>
+          <t>cache.t3.micro</t>
         </is>
       </c>
       <c r="D14" s="37" t="inlineStr">
@@ -29951,14 +29951,14 @@
           <t>cache.num_nodes</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" s="39" t="inlineStr">
@@ -30009,9 +30009,9 @@
           <t>cache.port</t>
         </is>
       </c>
-      <c r="B16" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B16" s="37" t="inlineStr">
+        <is>
+          <t>6379</t>
         </is>
       </c>
       <c r="C16" s="37" t="inlineStr">
@@ -30067,14 +30067,14 @@
           <t>cache.snapshot_retention</t>
         </is>
       </c>
-      <c r="B17" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B17" s="39" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" s="39" t="inlineStr">
@@ -30125,9 +30125,9 @@
           <t>cache.snapshot_window</t>
         </is>
       </c>
-      <c r="B18" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B18" s="37" t="inlineStr">
+        <is>
+          <t>05:00-06:00</t>
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr">
@@ -30183,9 +30183,9 @@
           <t>cache.transit_encryption</t>
         </is>
       </c>
-      <c r="B19" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B19" s="39" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
       <c r="C19" s="39" t="inlineStr">
@@ -30260,7 +30260,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -30288,12 +30288,12 @@
       </c>
       <c r="B2" s="36" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="C2" s="36" t="inlineStr">
         <is>
-          <t>Default Value</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D2" s="36" t="inlineStr">
@@ -30348,14 +30348,14 @@
           <t>application.enable_debug</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B3" s="39" t="inlineStr">
+        <is>
+          <t>false</t>
         </is>
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
@@ -30406,9 +30406,9 @@
           <t>application.health_path</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>/health</t>
         </is>
       </c>
       <c r="C4" s="37" t="inlineStr">
@@ -30464,14 +30464,14 @@
           <t>application.log_level</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>warn</t>
         </is>
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>warn</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
@@ -30522,9 +30522,9 @@
           <t>application.metrics_path</t>
         </is>
       </c>
-      <c r="B6" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B6" s="37" t="inlineStr">
+        <is>
+          <t>/metrics</t>
         </is>
       </c>
       <c r="C6" s="37" t="inlineStr">
@@ -30580,9 +30580,9 @@
           <t>application.name</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>sample-solution</t>
         </is>
       </c>
       <c r="C7" s="39" t="inlineStr">
@@ -30638,9 +30638,9 @@
           <t>application.port</t>
         </is>
       </c>
-      <c r="B8" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B8" s="37" t="inlineStr">
+        <is>
+          <t>8080</t>
         </is>
       </c>
       <c r="C8" s="37" t="inlineStr">
@@ -30696,9 +30696,9 @@
           <t>application.rate_limit</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B9" s="39" t="inlineStr">
+        <is>
+          <t>1000</t>
         </is>
       </c>
       <c r="C9" s="39" t="inlineStr">
@@ -30754,9 +30754,9 @@
           <t>application.session_timeout</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B10" s="37" t="inlineStr">
+        <is>
+          <t>3600</t>
         </is>
       </c>
       <c r="C10" s="37" t="inlineStr">
@@ -30812,9 +30812,9 @@
           <t>application.version</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C11" s="39" t="inlineStr">
@@ -30870,9 +30870,9 @@
           <t>solution.abbr</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B12" s="37" t="inlineStr">
+        <is>
+          <t>smp</t>
         </is>
       </c>
       <c r="C12" s="37" t="inlineStr">
@@ -30928,9 +30928,9 @@
           <t>solution.category_name</t>
         </is>
       </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>sample-category</t>
         </is>
       </c>
       <c r="C13" s="39" t="inlineStr">
@@ -30986,9 +30986,9 @@
           <t>solution.name</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B14" s="37" t="inlineStr">
+        <is>
+          <t>sample-solution</t>
         </is>
       </c>
       <c r="C14" s="37" t="inlineStr">
@@ -31044,9 +31044,9 @@
           <t>solution.provider_name</t>
         </is>
       </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Production</t>
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>sample-provider</t>
         </is>
       </c>
       <c r="C15" s="39" t="inlineStr">
